--- a/cheklist_kebersihan.xlsx
+++ b/cheklist_kebersihan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp2\Documents\Bionic\bionic\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{937E73FC-4A4C-4669-BEC0-21AA05AA898D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7499C-EABB-41C8-B4D1-C7D946745333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="2910" windowWidth="21015" windowHeight="11295" tabRatio="767" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1245" windowWidth="21015" windowHeight="11295" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift 1" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1491" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="311">
   <si>
     <t>bersih</t>
   </si>
@@ -975,6 +975,9 @@
   </si>
   <si>
     <t>pengumpulan apd kotor,perendaman apd,proses pencucian apd,penjemuran apd,setrika apd,penyimpanan ke loker</t>
+  </si>
+  <si>
+    <t>id_item_type</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1220,6 +1223,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -1543,10 +1552,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1556,9 +1565,10 @@
     <col min="3" max="3" width="37.5703125" style="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
@@ -1574,8 +1584,11 @@
       <c r="E1" s="22" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -1593,8 +1606,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A2,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
@@ -1612,8 +1629,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A3,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>IF(OR(B3="sabun_cuci_tangan",B3="tisu",B3="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
@@ -1631,8 +1652,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A4,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f>IF(OR(B4="sabun_cuci_tangan",B4="tisu",B4="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
@@ -1650,8 +1675,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A5,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f>IF(OR(B5="sabun_cuci_tangan",B5="tisu",B5="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1669,8 +1698,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A6,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f>IF(OR(B6="sabun_cuci_tangan",B6="tisu",B6="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1688,8 +1721,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A7,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f>IF(OR(B7="sabun_cuci_tangan",B7="tisu",B7="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
@@ -1707,8 +1744,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A8,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f>IF(OR(B8="sabun_cuci_tangan",B8="tisu",B8="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
@@ -1726,8 +1767,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A9,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f>IF(OR(B9="sabun_cuci_tangan",B9="tisu",B9="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1745,8 +1790,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A10,all_locations!$E$1:$E$51,0))), "")</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f>IF(OR(B10="sabun_cuci_tangan",B10="tisu",B10="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
@@ -1764,8 +1813,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A11,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f>IF(OR(B11="sabun_cuci_tangan",B11="tisu",B11="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>5</v>
       </c>
@@ -1783,8 +1836,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A12,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f>IF(OR(B12="sabun_cuci_tangan",B12="tisu",B12="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>5</v>
       </c>
@@ -1802,8 +1859,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A13,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f>IF(OR(B13="sabun_cuci_tangan",B13="tisu",B13="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>5</v>
       </c>
@@ -1821,8 +1882,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A14,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f>IF(OR(B14="sabun_cuci_tangan",B14="tisu",B14="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>5</v>
       </c>
@@ -1840,8 +1905,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A15,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f>IF(OR(B15="sabun_cuci_tangan",B15="tisu",B15="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>5</v>
       </c>
@@ -1859,8 +1928,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A16,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f>IF(OR(B16="sabun_cuci_tangan",B16="tisu",B16="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>5</v>
       </c>
@@ -1878,8 +1951,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A17,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f>IF(OR(B17="sabun_cuci_tangan",B17="tisu",B17="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>5</v>
       </c>
@@ -1897,8 +1974,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A18,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f>IF(OR(B18="sabun_cuci_tangan",B18="tisu",B18="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>5</v>
       </c>
@@ -1916,8 +1997,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A19,all_locations!$E$1:$E$51,0))), "")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f>IF(OR(B19="sabun_cuci_tangan",B19="tisu",B19="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>36</v>
       </c>
@@ -1935,8 +2020,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A20,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f>IF(OR(B20="sabun_cuci_tangan",B20="tisu",B20="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
@@ -1954,8 +2043,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A21,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f>IF(OR(B21="sabun_cuci_tangan",B21="tisu",B21="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
@@ -1973,8 +2066,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A22,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f>IF(OR(B22="sabun_cuci_tangan",B22="tisu",B22="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>36</v>
       </c>
@@ -1992,8 +2089,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A23,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f>IF(OR(B23="sabun_cuci_tangan",B23="tisu",B23="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>36</v>
       </c>
@@ -2011,8 +2112,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A24,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f>IF(OR(B24="sabun_cuci_tangan",B24="tisu",B24="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>36</v>
       </c>
@@ -2030,8 +2135,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A25,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f>IF(OR(B25="sabun_cuci_tangan",B25="tisu",B25="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>36</v>
       </c>
@@ -2049,8 +2158,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A26,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f>IF(OR(B26="sabun_cuci_tangan",B26="tisu",B26="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>36</v>
       </c>
@@ -2068,8 +2181,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A27,all_locations!$E$1:$E$51,0))), "")</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f>IF(OR(B27="sabun_cuci_tangan",B27="tisu",B27="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>38</v>
       </c>
@@ -2087,8 +2204,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A28,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f>IF(OR(B28="sabun_cuci_tangan",B28="tisu",B28="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>38</v>
       </c>
@@ -2106,8 +2227,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A29,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f>IF(OR(B29="sabun_cuci_tangan",B29="tisu",B29="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>38</v>
       </c>
@@ -2125,8 +2250,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A30,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f>IF(OR(B30="sabun_cuci_tangan",B30="tisu",B30="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>38</v>
       </c>
@@ -2144,8 +2273,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A31,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f>IF(OR(B31="sabun_cuci_tangan",B31="tisu",B31="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>38</v>
       </c>
@@ -2163,8 +2296,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A32,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f>IF(OR(B32="sabun_cuci_tangan",B32="tisu",B32="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>38</v>
       </c>
@@ -2182,8 +2319,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A33,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f>IF(OR(B33="sabun_cuci_tangan",B33="tisu",B33="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
@@ -2201,8 +2342,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A34,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f>IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>38</v>
       </c>
@@ -2220,8 +2365,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A35,all_locations!$E$1:$E$51,0))), "")</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f>IF(OR(B35="sabun_cuci_tangan",B35="tisu",B35="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>80</v>
       </c>
@@ -2239,8 +2388,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A36,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f>IF(OR(B36="sabun_cuci_tangan",B36="tisu",B36="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>80</v>
       </c>
@@ -2258,8 +2411,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A37,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f>IF(OR(B37="sabun_cuci_tangan",B37="tisu",B37="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>80</v>
       </c>
@@ -2277,8 +2434,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A38,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f>IF(OR(B38="sabun_cuci_tangan",B38="tisu",B38="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>80</v>
       </c>
@@ -2296,8 +2457,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A39,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f>IF(OR(B39="sabun_cuci_tangan",B39="tisu",B39="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>80</v>
       </c>
@@ -2315,8 +2480,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A40,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f>IF(OR(B40="sabun_cuci_tangan",B40="tisu",B40="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>80</v>
       </c>
@@ -2334,8 +2503,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A41,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f>IF(OR(B41="sabun_cuci_tangan",B41="tisu",B41="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>80</v>
       </c>
@@ -2353,8 +2526,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A42,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f>IF(OR(B42="sabun_cuci_tangan",B42="tisu",B42="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>80</v>
       </c>
@@ -2372,8 +2549,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A43,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f>IF(OR(B43="sabun_cuci_tangan",B43="tisu",B43="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>80</v>
       </c>
@@ -2391,8 +2572,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A44,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f>IF(OR(B44="sabun_cuci_tangan",B44="tisu",B44="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>80</v>
       </c>
@@ -2410,8 +2595,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A45,all_locations!$E$1:$E$51,0))), "")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f>IF(OR(B45="sabun_cuci_tangan",B45="tisu",B45="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
@@ -2429,8 +2618,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A46,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f>IF(OR(B46="sabun_cuci_tangan",B46="tisu",B46="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>43</v>
       </c>
@@ -2448,8 +2641,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A47,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f>IF(OR(B47="sabun_cuci_tangan",B47="tisu",B47="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>43</v>
       </c>
@@ -2467,8 +2664,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A48,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f>IF(OR(B48="sabun_cuci_tangan",B48="tisu",B48="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>43</v>
       </c>
@@ -2486,8 +2687,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A49,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f>IF(OR(B49="sabun_cuci_tangan",B49="tisu",B49="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>43</v>
       </c>
@@ -2505,8 +2710,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A50,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f>IF(OR(B50="sabun_cuci_tangan",B50="tisu",B50="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2733,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A51,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f>IF(OR(B51="sabun_cuci_tangan",B51="tisu",B51="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>43</v>
       </c>
@@ -2543,8 +2756,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A52,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f>IF(OR(B52="sabun_cuci_tangan",B52="tisu",B52="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>43</v>
       </c>
@@ -2562,8 +2779,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A53,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f>IF(OR(B53="sabun_cuci_tangan",B53="tisu",B53="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>43</v>
       </c>
@@ -2581,8 +2802,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A54,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f>IF(OR(B54="sabun_cuci_tangan",B54="tisu",B54="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>43</v>
       </c>
@@ -2600,8 +2825,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A55,all_locations!$E$1:$E$51,0))), "")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f>IF(OR(B55="sabun_cuci_tangan",B55="tisu",B55="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>46</v>
       </c>
@@ -2619,8 +2848,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A56,all_locations!$E$1:$E$51,0))), "")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f>IF(OR(B56="sabun_cuci_tangan",B56="tisu",B56="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>46</v>
       </c>
@@ -2638,8 +2871,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A57,all_locations!$E$1:$E$51,0))), "")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f>IF(OR(B57="sabun_cuci_tangan",B57="tisu",B57="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>46</v>
       </c>
@@ -2657,8 +2894,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A58,all_locations!$E$1:$E$51,0))), "")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f>IF(OR(B58="sabun_cuci_tangan",B58="tisu",B58="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>46</v>
       </c>
@@ -2676,8 +2917,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A59,all_locations!$E$1:$E$51,0))), "")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f>IF(OR(B59="sabun_cuci_tangan",B59="tisu",B59="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>46</v>
       </c>
@@ -2695,8 +2940,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A60,all_locations!$E$1:$E$51,0))), "")</f>
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f>IF(OR(B60="sabun_cuci_tangan",B60="tisu",B60="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>49</v>
       </c>
@@ -2714,8 +2963,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A61,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f>IF(OR(B61="sabun_cuci_tangan",B61="tisu",B61="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>49</v>
       </c>
@@ -2733,8 +2986,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A62,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f>IF(OR(B62="sabun_cuci_tangan",B62="tisu",B62="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>49</v>
       </c>
@@ -2752,8 +3009,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A63,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f>IF(OR(B63="sabun_cuci_tangan",B63="tisu",B63="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>49</v>
       </c>
@@ -2771,8 +3032,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A64,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f>IF(OR(B64="sabun_cuci_tangan",B64="tisu",B64="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>49</v>
       </c>
@@ -2790,8 +3055,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A65,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f>IF(OR(B65="sabun_cuci_tangan",B65="tisu",B65="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>49</v>
       </c>
@@ -2809,8 +3078,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A66,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f>IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>49</v>
       </c>
@@ -2828,8 +3101,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A67,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f>IF(OR(B67="sabun_cuci_tangan",B67="tisu",B67="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>49</v>
       </c>
@@ -2847,8 +3124,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A68,all_locations!$E$1:$E$51,0))), "")</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f>IF(OR(B68="sabun_cuci_tangan",B68="tisu",B68="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>52</v>
       </c>
@@ -2866,8 +3147,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A69,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f>IF(OR(B69="sabun_cuci_tangan",B69="tisu",B69="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>52</v>
       </c>
@@ -2885,8 +3170,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A70,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f>IF(OR(B70="sabun_cuci_tangan",B70="tisu",B70="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>52</v>
       </c>
@@ -2904,8 +3193,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A71,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f>IF(OR(B71="sabun_cuci_tangan",B71="tisu",B71="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>52</v>
       </c>
@@ -2923,8 +3216,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A72,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f>IF(OR(B72="sabun_cuci_tangan",B72="tisu",B72="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>52</v>
       </c>
@@ -2942,8 +3239,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A73,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f>IF(OR(B73="sabun_cuci_tangan",B73="tisu",B73="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>52</v>
       </c>
@@ -2961,8 +3262,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A74,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f>IF(OR(B74="sabun_cuci_tangan",B74="tisu",B74="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>52</v>
       </c>
@@ -2980,8 +3285,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A75,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f>IF(OR(B75="sabun_cuci_tangan",B75="tisu",B75="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>52</v>
       </c>
@@ -2999,8 +3308,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A76,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f>IF(OR(B76="sabun_cuci_tangan",B76="tisu",B76="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>52</v>
       </c>
@@ -3018,8 +3331,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A77,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f>IF(OR(B77="sabun_cuci_tangan",B77="tisu",B77="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>52</v>
       </c>
@@ -3037,8 +3354,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A78,all_locations!$E$1:$E$51,0))), "")</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f>IF(OR(B78="sabun_cuci_tangan",B78="tisu",B78="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>55</v>
       </c>
@@ -3056,8 +3377,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A79,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f>IF(OR(B79="sabun_cuci_tangan",B79="tisu",B79="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>55</v>
       </c>
@@ -3075,8 +3400,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A80,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f>IF(OR(B80="sabun_cuci_tangan",B80="tisu",B80="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>55</v>
       </c>
@@ -3094,8 +3423,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A81,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" t="str">
+        <f>IF(OR(B81="sabun_cuci_tangan",B81="tisu",B81="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>55</v>
       </c>
@@ -3113,8 +3446,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A82,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" t="str">
+        <f>IF(OR(B82="sabun_cuci_tangan",B82="tisu",B82="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>55</v>
       </c>
@@ -3132,8 +3469,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A83,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" t="str">
+        <f>IF(OR(B83="sabun_cuci_tangan",B83="tisu",B83="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>55</v>
       </c>
@@ -3151,8 +3492,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A84,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" t="str">
+        <f>IF(OR(B84="sabun_cuci_tangan",B84="tisu",B84="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>55</v>
       </c>
@@ -3170,8 +3515,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A85,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" t="str">
+        <f>IF(OR(B85="sabun_cuci_tangan",B85="tisu",B85="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>55</v>
       </c>
@@ -3189,8 +3538,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A86,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" t="str">
+        <f>IF(OR(B86="sabun_cuci_tangan",B86="tisu",B86="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>55</v>
       </c>
@@ -3208,8 +3561,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A87,all_locations!$E$1:$E$51,0))), "")</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" t="str">
+        <f>IF(OR(B87="sabun_cuci_tangan",B87="tisu",B87="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>58</v>
       </c>
@@ -3227,8 +3584,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A88,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" t="str">
+        <f>IF(OR(B88="sabun_cuci_tangan",B88="tisu",B88="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>58</v>
       </c>
@@ -3246,8 +3607,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A89,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" t="str">
+        <f>IF(OR(B89="sabun_cuci_tangan",B89="tisu",B89="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>58</v>
       </c>
@@ -3265,8 +3630,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A90,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" t="str">
+        <f>IF(OR(B90="sabun_cuci_tangan",B90="tisu",B90="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>58</v>
       </c>
@@ -3284,8 +3653,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A91,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" t="str">
+        <f>IF(OR(B91="sabun_cuci_tangan",B91="tisu",B91="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>58</v>
       </c>
@@ -3303,8 +3676,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A92,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" t="str">
+        <f>IF(OR(B92="sabun_cuci_tangan",B92="tisu",B92="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>58</v>
       </c>
@@ -3322,8 +3699,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A93,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" t="str">
+        <f>IF(OR(B93="sabun_cuci_tangan",B93="tisu",B93="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>58</v>
       </c>
@@ -3341,8 +3722,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A94,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" t="str">
+        <f>IF(OR(B94="sabun_cuci_tangan",B94="tisu",B94="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>58</v>
       </c>
@@ -3360,8 +3745,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A95,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" t="str">
+        <f>IF(OR(B95="sabun_cuci_tangan",B95="tisu",B95="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>58</v>
       </c>
@@ -3379,8 +3768,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A96,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" t="str">
+        <f>IF(OR(B96="sabun_cuci_tangan",B96="tisu",B96="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>58</v>
       </c>
@@ -3398,8 +3791,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A97,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" t="str">
+        <f>IF(OR(B97="sabun_cuci_tangan",B97="tisu",B97="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>58</v>
       </c>
@@ -3417,8 +3814,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A98,all_locations!$E$1:$E$51,0))), "")</f>
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" t="str">
+        <f>IF(OR(B98="sabun_cuci_tangan",B98="tisu",B98="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>7</v>
       </c>
@@ -3436,8 +3837,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A99,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" t="str">
+        <f>IF(OR(B99="sabun_cuci_tangan",B99="tisu",B99="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>7</v>
       </c>
@@ -3455,8 +3860,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A100,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" t="str">
+        <f>IF(OR(B100="sabun_cuci_tangan",B100="tisu",B100="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>7</v>
       </c>
@@ -3474,8 +3883,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A101,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" t="str">
+        <f>IF(OR(B101="sabun_cuci_tangan",B101="tisu",B101="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>7</v>
       </c>
@@ -3493,8 +3906,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A102,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" t="str">
+        <f>IF(OR(B102="sabun_cuci_tangan",B102="tisu",B102="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>7</v>
       </c>
@@ -3512,8 +3929,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A103,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" t="str">
+        <f>IF(OR(B103="sabun_cuci_tangan",B103="tisu",B103="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>7</v>
       </c>
@@ -3531,8 +3952,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A104,all_locations!$E$1:$E$51,0))), "")</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" t="str">
+        <f>IF(OR(B104="sabun_cuci_tangan",B104="tisu",B104="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>61</v>
       </c>
@@ -3550,8 +3975,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A105,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" t="str">
+        <f>IF(OR(B105="sabun_cuci_tangan",B105="tisu",B105="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>61</v>
       </c>
@@ -3569,8 +3998,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A106,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" t="str">
+        <f>IF(OR(B106="sabun_cuci_tangan",B106="tisu",B106="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>61</v>
       </c>
@@ -3588,8 +4021,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A107,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" t="str">
+        <f>IF(OR(B107="sabun_cuci_tangan",B107="tisu",B107="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>61</v>
       </c>
@@ -3607,8 +4044,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A108,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" t="str">
+        <f>IF(OR(B108="sabun_cuci_tangan",B108="tisu",B108="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>61</v>
       </c>
@@ -3626,8 +4067,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A109,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" t="str">
+        <f>IF(OR(B109="sabun_cuci_tangan",B109="tisu",B109="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>61</v>
       </c>
@@ -3645,8 +4090,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A110,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" t="str">
+        <f>IF(OR(B110="sabun_cuci_tangan",B110="tisu",B110="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>61</v>
       </c>
@@ -3664,8 +4113,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A111,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" t="str">
+        <f>IF(OR(B111="sabun_cuci_tangan",B111="tisu",B111="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>61</v>
       </c>
@@ -3683,8 +4136,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A112,all_locations!$E$1:$E$51,0))), "")</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" t="str">
+        <f>IF(OR(B112="sabun_cuci_tangan",B112="tisu",B112="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>63</v>
       </c>
@@ -3702,8 +4159,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A113,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" t="str">
+        <f>IF(OR(B113="sabun_cuci_tangan",B113="tisu",B113="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>63</v>
       </c>
@@ -3721,8 +4182,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A114,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" t="str">
+        <f>IF(OR(B114="sabun_cuci_tangan",B114="tisu",B114="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>63</v>
       </c>
@@ -3740,8 +4205,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A115,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" t="str">
+        <f>IF(OR(B115="sabun_cuci_tangan",B115="tisu",B115="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>63</v>
       </c>
@@ -3759,8 +4228,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A116,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" t="str">
+        <f>IF(OR(B116="sabun_cuci_tangan",B116="tisu",B116="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>63</v>
       </c>
@@ -3778,8 +4251,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A117,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" t="str">
+        <f>IF(OR(B117="sabun_cuci_tangan",B117="tisu",B117="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>63</v>
       </c>
@@ -3797,8 +4274,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A118,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" t="str">
+        <f>IF(OR(B118="sabun_cuci_tangan",B118="tisu",B118="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>63</v>
       </c>
@@ -3816,8 +4297,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A119,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" t="str">
+        <f>IF(OR(B119="sabun_cuci_tangan",B119="tisu",B119="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>63</v>
       </c>
@@ -3835,8 +4320,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A120,all_locations!$E$1:$E$51,0))), "")</f>
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" t="str">
+        <f>IF(OR(B120="sabun_cuci_tangan",B120="tisu",B120="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>65</v>
       </c>
@@ -3854,8 +4343,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A121,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" t="str">
+        <f>IF(OR(B121="sabun_cuci_tangan",B121="tisu",B121="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4366,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A122,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" t="str">
+        <f>IF(OR(B122="sabun_cuci_tangan",B122="tisu",B122="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>65</v>
       </c>
@@ -3892,8 +4389,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A123,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" t="str">
+        <f>IF(OR(B123="sabun_cuci_tangan",B123="tisu",B123="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>65</v>
       </c>
@@ -3911,8 +4412,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A124,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" t="str">
+        <f>IF(OR(B124="sabun_cuci_tangan",B124="tisu",B124="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>65</v>
       </c>
@@ -3930,8 +4435,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A125,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" t="str">
+        <f>IF(OR(B125="sabun_cuci_tangan",B125="tisu",B125="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>65</v>
       </c>
@@ -3949,8 +4458,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A126,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" t="str">
+        <f>IF(OR(B126="sabun_cuci_tangan",B126="tisu",B126="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>65</v>
       </c>
@@ -3968,8 +4481,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A127,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" t="str">
+        <f>IF(OR(B127="sabun_cuci_tangan",B127="tisu",B127="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>65</v>
       </c>
@@ -3987,8 +4504,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A128,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" t="str">
+        <f>IF(OR(B128="sabun_cuci_tangan",B128="tisu",B128="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>65</v>
       </c>
@@ -4006,8 +4527,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A129,all_locations!$E$1:$E$51,0))), "")</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" t="str">
+        <f>IF(OR(B129="sabun_cuci_tangan",B129="tisu",B129="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>67</v>
       </c>
@@ -4025,8 +4550,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A130,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" t="str">
+        <f>IF(OR(B130="sabun_cuci_tangan",B130="tisu",B130="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>67</v>
       </c>
@@ -4044,8 +4573,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A131,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" t="str">
+        <f>IF(OR(B131="sabun_cuci_tangan",B131="tisu",B131="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>67</v>
       </c>
@@ -4063,8 +4596,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A132,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" t="str">
+        <f>IF(OR(B132="sabun_cuci_tangan",B132="tisu",B132="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>67</v>
       </c>
@@ -4082,8 +4619,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A133,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" t="str">
+        <f>IF(OR(B133="sabun_cuci_tangan",B133="tisu",B133="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>67</v>
       </c>
@@ -4101,8 +4642,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A134,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" t="str">
+        <f>IF(OR(B134="sabun_cuci_tangan",B134="tisu",B134="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>67</v>
       </c>
@@ -4120,8 +4665,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A135,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" t="str">
+        <f>IF(OR(B135="sabun_cuci_tangan",B135="tisu",B135="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>67</v>
       </c>
@@ -4139,8 +4688,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A136,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" t="str">
+        <f>IF(OR(B136="sabun_cuci_tangan",B136="tisu",B136="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>67</v>
       </c>
@@ -4158,8 +4711,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A137,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" t="str">
+        <f>IF(OR(B137="sabun_cuci_tangan",B137="tisu",B137="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>67</v>
       </c>
@@ -4177,8 +4734,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A138,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" t="str">
+        <f>IF(OR(B138="sabun_cuci_tangan",B138="tisu",B138="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>67</v>
       </c>
@@ -4196,8 +4757,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A139,all_locations!$E$1:$E$51,0))), "")</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" t="str">
+        <f>IF(OR(B139="sabun_cuci_tangan",B139="tisu",B139="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>78</v>
       </c>
@@ -4215,8 +4780,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A140,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" t="str">
+        <f>IF(OR(B140="sabun_cuci_tangan",B140="tisu",B140="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>78</v>
       </c>
@@ -4234,8 +4803,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A141,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" t="str">
+        <f>IF(OR(B141="sabun_cuci_tangan",B141="tisu",B141="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>78</v>
       </c>
@@ -4253,8 +4826,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A142,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" t="str">
+        <f>IF(OR(B142="sabun_cuci_tangan",B142="tisu",B142="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>78</v>
       </c>
@@ -4272,8 +4849,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A143,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" t="str">
+        <f>IF(OR(B143="sabun_cuci_tangan",B143="tisu",B143="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>78</v>
       </c>
@@ -4291,8 +4872,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A144,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" t="str">
+        <f>IF(OR(B144="sabun_cuci_tangan",B144="tisu",B144="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>78</v>
       </c>
@@ -4310,8 +4895,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A145,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" t="str">
+        <f>IF(OR(B145="sabun_cuci_tangan",B145="tisu",B145="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>78</v>
       </c>
@@ -4329,8 +4918,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A146,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" t="str">
+        <f>IF(OR(B146="sabun_cuci_tangan",B146="tisu",B146="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>78</v>
       </c>
@@ -4348,8 +4941,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A147,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" t="str">
+        <f>IF(OR(B147="sabun_cuci_tangan",B147="tisu",B147="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>78</v>
       </c>
@@ -4367,8 +4964,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A148,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" t="str">
+        <f>IF(OR(B148="sabun_cuci_tangan",B148="tisu",B148="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>78</v>
       </c>
@@ -4386,8 +4987,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A149,all_locations!$E$1:$E$51,0))), "")</f>
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" t="str">
+        <f>IF(OR(B149="sabun_cuci_tangan",B149="tisu",B149="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>71</v>
       </c>
@@ -4405,8 +5010,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A150,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" t="str">
+        <f>IF(OR(B150="sabun_cuci_tangan",B150="tisu",B150="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>71</v>
       </c>
@@ -4424,8 +5033,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A151,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" t="str">
+        <f>IF(OR(B151="sabun_cuci_tangan",B151="tisu",B151="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>71</v>
       </c>
@@ -4443,8 +5056,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A152,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" t="str">
+        <f>IF(OR(B152="sabun_cuci_tangan",B152="tisu",B152="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>71</v>
       </c>
@@ -4462,8 +5079,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A153,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" t="str">
+        <f>IF(OR(B153="sabun_cuci_tangan",B153="tisu",B153="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>71</v>
       </c>
@@ -4481,8 +5102,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A154,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" t="str">
+        <f>IF(OR(B154="sabun_cuci_tangan",B154="tisu",B154="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
         <v>71</v>
       </c>
@@ -4500,8 +5125,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A155,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" t="str">
+        <f>IF(OR(B155="sabun_cuci_tangan",B155="tisu",B155="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
         <v>71</v>
       </c>
@@ -4519,8 +5148,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A156,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" t="str">
+        <f>IF(OR(B156="sabun_cuci_tangan",B156="tisu",B156="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="8" t="s">
         <v>71</v>
       </c>
@@ -4538,8 +5171,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A157,all_locations!$E$1:$E$51,0))), "")</f>
         <v>18</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" t="str">
+        <f>IF(OR(B157="sabun_cuci_tangan",B157="tisu",B157="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
         <v>8</v>
       </c>
@@ -4557,8 +5194,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A158,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" t="str">
+        <f>IF(OR(B158="sabun_cuci_tangan",B158="tisu",B158="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="8" t="s">
         <v>8</v>
       </c>
@@ -4576,8 +5217,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A159,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" t="str">
+        <f>IF(OR(B159="sabun_cuci_tangan",B159="tisu",B159="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
         <v>8</v>
       </c>
@@ -4595,8 +5240,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A160,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" t="str">
+        <f>IF(OR(B160="sabun_cuci_tangan",B160="tisu",B160="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
         <v>8</v>
       </c>
@@ -4614,8 +5263,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A161,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" t="str">
+        <f>IF(OR(B161="sabun_cuci_tangan",B161="tisu",B161="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
         <v>8</v>
       </c>
@@ -4633,8 +5286,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A162,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" t="str">
+        <f>IF(OR(B162="sabun_cuci_tangan",B162="tisu",B162="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="8" t="s">
         <v>8</v>
       </c>
@@ -4652,8 +5309,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A163,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" t="str">
+        <f>IF(OR(B163="sabun_cuci_tangan",B163="tisu",B163="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="s">
         <v>8</v>
       </c>
@@ -4671,8 +5332,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A164,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" t="str">
+        <f>IF(OR(B164="sabun_cuci_tangan",B164="tisu",B164="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
         <v>8</v>
       </c>
@@ -4690,8 +5355,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A165,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" t="str">
+        <f>IF(OR(B165="sabun_cuci_tangan",B165="tisu",B165="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
         <v>8</v>
       </c>
@@ -4709,8 +5378,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A166,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" t="str">
+        <f>IF(OR(B166="sabun_cuci_tangan",B166="tisu",B166="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
         <v>8</v>
       </c>
@@ -4728,8 +5401,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A167,all_locations!$E$1:$E$51,0))), "")</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" t="str">
+        <f>IF(OR(B167="sabun_cuci_tangan",B167="tisu",B167="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="s">
         <v>79</v>
       </c>
@@ -4747,8 +5424,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A168,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" t="str">
+        <f>IF(OR(B168="sabun_cuci_tangan",B168="tisu",B168="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="8" t="s">
         <v>79</v>
       </c>
@@ -4766,8 +5447,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A169,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" t="str">
+        <f>IF(OR(B169="sabun_cuci_tangan",B169="tisu",B169="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="s">
         <v>79</v>
       </c>
@@ -4785,8 +5470,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A170,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" t="str">
+        <f>IF(OR(B170="sabun_cuci_tangan",B170="tisu",B170="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="8" t="s">
         <v>79</v>
       </c>
@@ -4804,8 +5493,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A171,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" t="str">
+        <f>IF(OR(B171="sabun_cuci_tangan",B171="tisu",B171="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="s">
         <v>79</v>
       </c>
@@ -4823,8 +5516,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A172,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" t="str">
+        <f>IF(OR(B172="sabun_cuci_tangan",B172="tisu",B172="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="8" t="s">
         <v>79</v>
       </c>
@@ -4842,8 +5539,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A173,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" t="str">
+        <f>IF(OR(B173="sabun_cuci_tangan",B173="tisu",B173="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="s">
         <v>79</v>
       </c>
@@ -4861,8 +5562,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A174,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" t="str">
+        <f>IF(OR(B174="sabun_cuci_tangan",B174="tisu",B174="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="8" t="s">
         <v>79</v>
       </c>
@@ -4880,8 +5585,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A175,all_locations!$E$1:$E$51,0))), "")</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" t="str">
+        <f>IF(OR(B175="sabun_cuci_tangan",B175="tisu",B175="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="s">
         <v>73</v>
       </c>
@@ -4899,8 +5608,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A176,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" t="str">
+        <f>IF(OR(B176="sabun_cuci_tangan",B176="tisu",B176="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="8" t="s">
         <v>73</v>
       </c>
@@ -4918,8 +5631,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A177,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" t="str">
+        <f>IF(OR(B177="sabun_cuci_tangan",B177="tisu",B177="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="s">
         <v>73</v>
       </c>
@@ -4937,8 +5654,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A178,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" t="str">
+        <f>IF(OR(B178="sabun_cuci_tangan",B178="tisu",B178="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="8" t="s">
         <v>73</v>
       </c>
@@ -4956,8 +5677,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A179,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" t="str">
+        <f>IF(OR(B179="sabun_cuci_tangan",B179="tisu",B179="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="s">
         <v>73</v>
       </c>
@@ -4975,8 +5700,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A180,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" t="str">
+        <f>IF(OR(B180="sabun_cuci_tangan",B180="tisu",B180="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="8" t="s">
         <v>73</v>
       </c>
@@ -4994,8 +5723,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A181,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" t="str">
+        <f>IF(OR(B181="sabun_cuci_tangan",B181="tisu",B181="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="s">
         <v>73</v>
       </c>
@@ -5013,8 +5746,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A182,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" t="str">
+        <f>IF(OR(B182="sabun_cuci_tangan",B182="tisu",B182="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="8" t="s">
         <v>73</v>
       </c>
@@ -5032,8 +5769,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A183,all_locations!$E$1:$E$51,0))), "")</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" t="str">
+        <f>IF(OR(B183="sabun_cuci_tangan",B183="tisu",B183="pengharum_ruangan"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>26</v>
@@ -5043,6 +5784,7 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B184,all_items!$A$1:$A$57,0))), "")</f>
         <v/>
       </c>
+      <c r="F184" s="26"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E185">
@@ -5058,10 +5800,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A136" sqref="A136:XFD140"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5071,10 +5813,11 @@
     <col min="3" max="3" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="5"/>
+    <col min="6" max="6" width="15.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -5090,8 +5833,11 @@
       <c r="E1" s="23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>81</v>
       </c>
@@ -5107,8 +5853,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A2,all_locations!$E$1:$E$51,0))),"")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="5" t="str">
+        <f>IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan",B2="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>81</v>
       </c>
@@ -5124,8 +5874,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A3,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F66" si="0">IF(OR(B3="sabun_cuci_tangan",B3="tisu",B3="pengharum_ruangan",B3="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>81</v>
       </c>
@@ -5141,8 +5895,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A4,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>81</v>
       </c>
@@ -5158,8 +5916,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A5,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5937,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A6,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>81</v>
       </c>
@@ -5192,8 +5958,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A7,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>81</v>
       </c>
@@ -5209,8 +5979,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A8,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>81</v>
       </c>
@@ -5226,8 +6000,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A9,all_locations!$E$1:$E$51,0))), "")</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
@@ -5243,8 +6021,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A10,all_locations!$E$1:$E$51,0))), "")</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
@@ -5260,8 +6042,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A11,all_locations!$E$1:$E$51,0))), "")</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
@@ -5277,8 +6063,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A12,all_locations!$E$1:$E$51,0))), "")</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
@@ -5294,8 +6084,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A13,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
@@ -5313,8 +6107,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A14,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
@@ -5330,8 +6128,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A15,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>1</v>
       </c>
@@ -5347,8 +6149,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A16,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>1</v>
       </c>
@@ -5364,8 +6170,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A17,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>1</v>
       </c>
@@ -5381,8 +6191,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A18,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>1</v>
       </c>
@@ -5398,8 +6212,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A19,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>1</v>
       </c>
@@ -5415,8 +6233,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A20,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>1</v>
       </c>
@@ -5432,8 +6254,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A21,all_locations!$E$1:$E$51,0))), "")</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>39</v>
       </c>
@@ -5449,8 +6275,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A22,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>39</v>
       </c>
@@ -5466,8 +6296,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A23,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>39</v>
       </c>
@@ -5483,8 +6317,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A24,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>39</v>
       </c>
@@ -5500,8 +6338,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A25,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>39</v>
       </c>
@@ -5517,8 +6359,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A26,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>39</v>
       </c>
@@ -5534,8 +6380,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A27,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>39</v>
       </c>
@@ -5551,8 +6401,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A28,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>39</v>
       </c>
@@ -5568,8 +6422,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A29,all_locations!$E$1:$E$51,0))), "")</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>41</v>
       </c>
@@ -5585,8 +6443,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A30,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>41</v>
       </c>
@@ -5602,8 +6464,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A31,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -5619,8 +6485,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A32,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>41</v>
       </c>
@@ -5636,8 +6506,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A33,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>41</v>
       </c>
@@ -5653,8 +6527,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A34,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>41</v>
       </c>
@@ -5670,8 +6548,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A35,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>41</v>
       </c>
@@ -5687,8 +6569,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A36,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>41</v>
       </c>
@@ -5704,8 +6590,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A37,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>41</v>
       </c>
@@ -5721,8 +6611,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A38,all_locations!$E$1:$E$51,0))), "")</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>44</v>
       </c>
@@ -5738,8 +6632,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A39,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>44</v>
       </c>
@@ -5755,8 +6653,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A40,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>44</v>
       </c>
@@ -5772,8 +6674,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A41,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>44</v>
       </c>
@@ -5789,8 +6695,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A42,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>44</v>
       </c>
@@ -5806,8 +6716,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A43,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>44</v>
       </c>
@@ -5823,8 +6737,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A44,all_locations!$E$1:$E$51,0))), "")</f>
         <v>27</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>47</v>
       </c>
@@ -5840,8 +6758,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A45,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>47</v>
       </c>
@@ -5857,8 +6779,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A46,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>47</v>
       </c>
@@ -5874,8 +6800,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A47,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>47</v>
       </c>
@@ -5891,8 +6821,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A48,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>47</v>
       </c>
@@ -5908,8 +6842,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A49,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
@@ -5925,8 +6863,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A50,all_locations!$E$1:$E$51,0))), "")</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>50</v>
       </c>
@@ -5942,8 +6884,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A51,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>50</v>
       </c>
@@ -5959,8 +6905,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A52,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
@@ -5976,8 +6926,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A53,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>50</v>
       </c>
@@ -5993,8 +6947,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A54,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>50</v>
       </c>
@@ -6010,8 +6968,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A55,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>50</v>
       </c>
@@ -6027,8 +6989,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A56,all_locations!$E$1:$E$51,0))), "")</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>53</v>
       </c>
@@ -6044,8 +7010,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A57,all_locations!$E$1:$E$51,0))), "")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>53</v>
       </c>
@@ -6061,8 +7031,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A58,all_locations!$E$1:$E$51,0))), "")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>53</v>
       </c>
@@ -6078,8 +7052,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A59,all_locations!$E$1:$E$51,0))), "")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>53</v>
       </c>
@@ -6095,8 +7073,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A60,all_locations!$E$1:$E$51,0))), "")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>53</v>
       </c>
@@ -6112,8 +7094,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A61,all_locations!$E$1:$E$51,0))), "")</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>56</v>
       </c>
@@ -6129,8 +7115,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A62,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>56</v>
       </c>
@@ -6146,8 +7136,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A63,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>56</v>
       </c>
@@ -6163,8 +7157,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A64,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>56</v>
       </c>
@@ -6180,8 +7178,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A65,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>56</v>
       </c>
@@ -6197,8 +7199,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A66,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>56</v>
       </c>
@@ -6214,8 +7220,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A67,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="5" t="str">
+        <f t="shared" ref="F67:F130" si="1">IF(OR(B67="sabun_cuci_tangan",B67="tisu",B67="pengharum_ruangan",B67="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>56</v>
       </c>
@@ -6231,8 +7241,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A68,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>56</v>
       </c>
@@ -6248,8 +7262,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A69,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>56</v>
       </c>
@@ -6265,8 +7283,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A70,all_locations!$E$1:$E$51,0))), "")</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>2</v>
       </c>
@@ -6282,8 +7304,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A71,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>2</v>
       </c>
@@ -6299,8 +7325,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A72,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>2</v>
       </c>
@@ -6316,8 +7346,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A73,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>2</v>
       </c>
@@ -6333,8 +7367,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A74,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>2</v>
       </c>
@@ -6350,8 +7388,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A75,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>2</v>
       </c>
@@ -6367,8 +7409,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A76,all_locations!$E$1:$E$51,0))), "")</f>
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>60</v>
       </c>
@@ -6384,8 +7430,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A77,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>60</v>
       </c>
@@ -6401,8 +7451,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A78,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>60</v>
       </c>
@@ -6418,8 +7472,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A79,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>60</v>
       </c>
@@ -6435,8 +7493,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A80,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>60</v>
       </c>
@@ -6452,8 +7514,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A81,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="11" t="s">
         <v>60</v>
       </c>
@@ -6469,8 +7535,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A82,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="11" t="s">
         <v>60</v>
       </c>
@@ -6486,8 +7556,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A83,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="11" t="s">
         <v>60</v>
       </c>
@@ -6503,8 +7577,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A84,all_locations!$E$1:$E$51,0))), "")</f>
         <v>33</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="11" t="s">
         <v>62</v>
       </c>
@@ -6520,8 +7598,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A85,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
         <v>62</v>
       </c>
@@ -6537,8 +7619,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A86,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="11" t="s">
         <v>62</v>
       </c>
@@ -6554,8 +7640,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A87,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
         <v>62</v>
       </c>
@@ -6571,8 +7661,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A88,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="11" t="s">
         <v>62</v>
       </c>
@@ -6588,8 +7682,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A89,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
         <v>62</v>
       </c>
@@ -6605,8 +7703,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A90,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="11" t="s">
         <v>62</v>
       </c>
@@ -6622,8 +7724,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A91,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
         <v>62</v>
       </c>
@@ -6639,8 +7745,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A92,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="11" t="s">
         <v>62</v>
       </c>
@@ -6656,8 +7766,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A93,all_locations!$E$1:$E$51,0))), "")</f>
         <v>34</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
         <v>64</v>
       </c>
@@ -6673,8 +7787,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A94,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="11" t="s">
         <v>64</v>
       </c>
@@ -6690,8 +7808,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A95,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
         <v>64</v>
       </c>
@@ -6707,8 +7829,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A96,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="11" t="s">
         <v>64</v>
       </c>
@@ -6724,8 +7850,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A97,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
         <v>64</v>
       </c>
@@ -6741,8 +7871,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A98,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>64</v>
       </c>
@@ -6758,8 +7892,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A99,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="11" t="s">
         <v>64</v>
       </c>
@@ -6775,8 +7913,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A100,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
         <v>64</v>
       </c>
@@ -6792,8 +7934,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A101,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
         <v>64</v>
       </c>
@@ -6809,8 +7955,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A102,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="11" t="s">
         <v>64</v>
       </c>
@@ -6826,8 +7976,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A103,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>64</v>
       </c>
@@ -6843,8 +7997,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A104,all_locations!$E$1:$E$51,0))), "")</f>
         <v>35</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="11" t="s">
         <v>306</v>
       </c>
@@ -6860,8 +8018,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A105,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
         <v>306</v>
       </c>
@@ -6877,8 +8039,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A106,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="11" t="s">
         <v>306</v>
       </c>
@@ -6894,8 +8060,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A107,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
         <v>306</v>
       </c>
@@ -6911,8 +8081,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A108,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="11" t="s">
         <v>306</v>
       </c>
@@ -6928,8 +8102,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A109,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
         <v>306</v>
       </c>
@@ -6945,8 +8123,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A110,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="11" t="s">
         <v>306</v>
       </c>
@@ -6962,8 +8144,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A111,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
         <v>306</v>
       </c>
@@ -6979,8 +8165,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A112,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="11" t="s">
         <v>306</v>
       </c>
@@ -6996,8 +8186,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A113,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="11" t="s">
         <v>306</v>
       </c>
@@ -7013,8 +8207,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A114,all_locations!$E$1:$E$51,0))), "")</f>
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="11" t="s">
         <v>307</v>
       </c>
@@ -7030,8 +8228,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A115,all_locations!$E$1:$E$51,0))), "")</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="11" t="s">
         <v>307</v>
       </c>
@@ -7047,8 +8249,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A116,all_locations!$E$1:$E$51,0))), "")</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="11" t="s">
         <v>307</v>
       </c>
@@ -7064,8 +8270,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A117,all_locations!$E$1:$E$51,0))), "")</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="11" t="s">
         <v>307</v>
       </c>
@@ -7081,8 +8291,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A118,all_locations!$E$1:$E$51,0))), "")</f>
         <v>36</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="11" t="s">
         <v>68</v>
       </c>
@@ -7098,8 +8312,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A119,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="11" t="s">
         <v>68</v>
       </c>
@@ -7115,8 +8333,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A120,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="11" t="s">
         <v>68</v>
       </c>
@@ -7132,8 +8354,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A121,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="11" t="s">
         <v>68</v>
       </c>
@@ -7149,8 +8375,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A122,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="11" t="s">
         <v>68</v>
       </c>
@@ -7166,8 +8396,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A123,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="11" t="s">
         <v>68</v>
       </c>
@@ -7183,8 +8417,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A124,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="11" t="s">
         <v>68</v>
       </c>
@@ -7200,8 +8438,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A125,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="11" t="s">
         <v>68</v>
       </c>
@@ -7217,8 +8459,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A126,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="11" t="s">
         <v>68</v>
       </c>
@@ -7234,8 +8480,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A127,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
         <v>68</v>
       </c>
@@ -7251,8 +8501,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A128,all_locations!$E$1:$E$51,0))), "")</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="11" t="s">
         <v>10</v>
       </c>
@@ -7268,8 +8522,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A129,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="11" t="s">
         <v>10</v>
       </c>
@@ -7285,8 +8543,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A130,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>10</v>
       </c>
@@ -7302,8 +8564,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A131,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="5" t="str">
+        <f t="shared" ref="F131:F135" si="2">IF(OR(B131="sabun_cuci_tangan",B131="tisu",B131="pengharum_ruangan",B131="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>10</v>
       </c>
@@ -7319,8 +8585,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A132,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>10</v>
       </c>
@@ -7336,8 +8606,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A133,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>10</v>
       </c>
@@ -7353,8 +8627,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A134,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>10</v>
       </c>
@@ -7370,50 +8648,54 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A135,all_locations!$E$1:$E$51,0))), "")</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
       <c r="E138"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
       <c r="E141"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
       <c r="E142"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143"/>
       <c r="B143"/>
       <c r="C143"/>
@@ -7431,10 +8713,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7444,9 +8726,10 @@
     <col min="3" max="3" width="8.140625" style="10" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
@@ -7462,8 +8745,11 @@
       <c r="E1" s="23" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="22" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>33</v>
       </c>
@@ -7479,8 +8765,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A2,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="str">
+        <f>IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan",B2="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>33</v>
       </c>
@@ -7496,8 +8786,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A3,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="str">
+        <f>IF(OR(B3="sabun_cuci_tangan",B3="tisu",B3="pengharum_ruangan",B3="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>33</v>
       </c>
@@ -7513,8 +8807,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A4,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" t="str">
+        <f>IF(OR(B4="sabun_cuci_tangan",B4="tisu",B4="pengharum_ruangan",B4="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>33</v>
       </c>
@@ -7530,8 +8828,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A5,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="str">
+        <f>IF(OR(B5="sabun_cuci_tangan",B5="tisu",B5="pengharum_ruangan",B5="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>33</v>
       </c>
@@ -7547,8 +8849,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A6,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="str">
+        <f>IF(OR(B6="sabun_cuci_tangan",B6="tisu",B6="pengharum_ruangan",B6="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>33</v>
       </c>
@@ -7564,8 +8870,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A7,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" t="str">
+        <f>IF(OR(B7="sabun_cuci_tangan",B7="tisu",B7="pengharum_ruangan",B7="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>33</v>
       </c>
@@ -7581,8 +8891,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A8,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" t="str">
+        <f>IF(OR(B8="sabun_cuci_tangan",B8="tisu",B8="pengharum_ruangan",B8="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -7598,8 +8912,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A9,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" t="str">
+        <f>IF(OR(B9="sabun_cuci_tangan",B9="tisu",B9="pengharum_ruangan",B9="kamper"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>33</v>
       </c>
@@ -7615,8 +8933,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A10,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" t="str">
+        <f>IF(OR(B10="sabun_cuci_tangan",B10="tisu",B10="pengharum_ruangan",B10="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
@@ -7632,8 +8954,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A11,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" t="str">
+        <f>IF(OR(B11="sabun_cuci_tangan",B11="tisu",B11="pengharum_ruangan",B11="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>33</v>
       </c>
@@ -7649,8 +8975,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A12,all_locations!$E$1:$E$51,0))), "")</f>
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" t="str">
+        <f>IF(OR(B12="sabun_cuci_tangan",B12="tisu",B12="pengharum_ruangan",B12="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>35</v>
       </c>
@@ -7666,8 +8996,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A13,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="str">
+        <f>IF(OR(B13="sabun_cuci_tangan",B13="tisu",B13="pengharum_ruangan",B13="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>35</v>
       </c>
@@ -7683,8 +9017,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A14,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" t="str">
+        <f>IF(OR(B14="sabun_cuci_tangan",B14="tisu",B14="pengharum_ruangan",B14="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>35</v>
       </c>
@@ -7700,8 +9038,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A15,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" t="str">
+        <f>IF(OR(B15="sabun_cuci_tangan",B15="tisu",B15="pengharum_ruangan",B15="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>35</v>
       </c>
@@ -7717,8 +9059,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A16,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" t="str">
+        <f>IF(OR(B16="sabun_cuci_tangan",B16="tisu",B16="pengharum_ruangan",B16="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -7734,8 +9080,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A17,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" t="str">
+        <f>IF(OR(B17="sabun_cuci_tangan",B17="tisu",B17="pengharum_ruangan",B17="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>35</v>
       </c>
@@ -7751,8 +9101,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A18,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" t="str">
+        <f>IF(OR(B18="sabun_cuci_tangan",B18="tisu",B18="pengharum_ruangan",B18="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>35</v>
       </c>
@@ -7768,8 +9122,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A19,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" t="str">
+        <f>IF(OR(B19="sabun_cuci_tangan",B19="tisu",B19="pengharum_ruangan",B19="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -7785,8 +9143,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A20,all_locations!$E$1:$E$51,0))), "")</f>
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" t="str">
+        <f>IF(OR(B20="sabun_cuci_tangan",B20="tisu",B20="pengharum_ruangan",B20="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>37</v>
       </c>
@@ -7802,8 +9164,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A21,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="str">
+        <f>IF(OR(B21="sabun_cuci_tangan",B21="tisu",B21="pengharum_ruangan",B21="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>37</v>
       </c>
@@ -7819,8 +9185,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A22,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" t="str">
+        <f>IF(OR(B22="sabun_cuci_tangan",B22="tisu",B22="pengharum_ruangan",B22="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>37</v>
       </c>
@@ -7836,8 +9206,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A23,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" t="str">
+        <f>IF(OR(B23="sabun_cuci_tangan",B23="tisu",B23="pengharum_ruangan",B23="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>37</v>
       </c>
@@ -7853,8 +9227,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A24,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="str">
+        <f>IF(OR(B24="sabun_cuci_tangan",B24="tisu",B24="pengharum_ruangan",B24="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>37</v>
       </c>
@@ -7870,8 +9248,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A25,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" t="str">
+        <f>IF(OR(B25="sabun_cuci_tangan",B25="tisu",B25="pengharum_ruangan",B25="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>37</v>
       </c>
@@ -7887,8 +9269,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A26,all_locations!$E$1:$E$51,0))), "")</f>
         <v>43</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" t="str">
+        <f>IF(OR(B26="sabun_cuci_tangan",B26="tisu",B26="pengharum_ruangan",B26="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>40</v>
       </c>
@@ -7904,8 +9290,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A27,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" t="str">
+        <f>IF(OR(B27="sabun_cuci_tangan",B27="tisu",B27="pengharum_ruangan",B27="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>40</v>
       </c>
@@ -7921,8 +9311,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A28,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" t="str">
+        <f>IF(OR(B28="sabun_cuci_tangan",B28="tisu",B28="pengharum_ruangan",B28="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>40</v>
       </c>
@@ -7938,8 +9332,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A29,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" t="str">
+        <f>IF(OR(B29="sabun_cuci_tangan",B29="tisu",B29="pengharum_ruangan",B29="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>40</v>
       </c>
@@ -7955,8 +9353,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A30,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="str">
+        <f>IF(OR(B30="sabun_cuci_tangan",B30="tisu",B30="pengharum_ruangan",B30="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>40</v>
       </c>
@@ -7972,8 +9374,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A31,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="str">
+        <f>IF(OR(B31="sabun_cuci_tangan",B31="tisu",B31="pengharum_ruangan",B31="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>40</v>
       </c>
@@ -7989,8 +9395,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A32,all_locations!$E$1:$E$51,0))), "")</f>
         <v>44</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" t="str">
+        <f>IF(OR(B32="sabun_cuci_tangan",B32="tisu",B32="pengharum_ruangan",B32="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>42</v>
       </c>
@@ -8006,8 +9416,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A33,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" t="str">
+        <f>IF(OR(B33="sabun_cuci_tangan",B33="tisu",B33="pengharum_ruangan",B33="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>42</v>
       </c>
@@ -8023,8 +9437,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A34,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" t="str">
+        <f>IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan",B34="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -8040,8 +9458,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A35,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" t="str">
+        <f>IF(OR(B35="sabun_cuci_tangan",B35="tisu",B35="pengharum_ruangan",B35="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -8057,8 +9479,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A36,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" t="str">
+        <f>IF(OR(B36="sabun_cuci_tangan",B36="tisu",B36="pengharum_ruangan",B36="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
@@ -8074,8 +9500,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A37,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" t="str">
+        <f>IF(OR(B37="sabun_cuci_tangan",B37="tisu",B37="pengharum_ruangan",B37="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>42</v>
       </c>
@@ -8091,8 +9521,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A38,all_locations!$E$1:$E$51,0))), "")</f>
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" t="str">
+        <f>IF(OR(B38="sabun_cuci_tangan",B38="tisu",B38="pengharum_ruangan",B38="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>45</v>
       </c>
@@ -8108,8 +9542,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A39,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" t="str">
+        <f>IF(OR(B39="sabun_cuci_tangan",B39="tisu",B39="pengharum_ruangan",B39="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>45</v>
       </c>
@@ -8125,8 +9563,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A40,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" t="str">
+        <f>IF(OR(B40="sabun_cuci_tangan",B40="tisu",B40="pengharum_ruangan",B40="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -8142,8 +9584,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A41,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" t="str">
+        <f>IF(OR(B41="sabun_cuci_tangan",B41="tisu",B41="pengharum_ruangan",B41="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>45</v>
       </c>
@@ -8159,8 +9605,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A42,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" t="str">
+        <f>IF(OR(B42="sabun_cuci_tangan",B42="tisu",B42="pengharum_ruangan",B42="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>45</v>
       </c>
@@ -8176,8 +9626,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A43,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" t="str">
+        <f>IF(OR(B43="sabun_cuci_tangan",B43="tisu",B43="pengharum_ruangan",B43="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>45</v>
       </c>
@@ -8193,8 +9647,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A44,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" t="str">
+        <f>IF(OR(B44="sabun_cuci_tangan",B44="tisu",B44="pengharum_ruangan",B44="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>45</v>
       </c>
@@ -8210,8 +9668,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A45,all_locations!$E$1:$E$51,0))), "")</f>
         <v>46</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" t="str">
+        <f>IF(OR(B45="sabun_cuci_tangan",B45="tisu",B45="pengharum_ruangan",B45="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>48</v>
       </c>
@@ -8227,8 +9689,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A46,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" t="str">
+        <f>IF(OR(B46="sabun_cuci_tangan",B46="tisu",B46="pengharum_ruangan",B46="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>48</v>
       </c>
@@ -8244,8 +9710,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A47,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" t="str">
+        <f>IF(OR(B47="sabun_cuci_tangan",B47="tisu",B47="pengharum_ruangan",B47="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -8261,8 +9731,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A48,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" t="str">
+        <f>IF(OR(B48="sabun_cuci_tangan",B48="tisu",B48="pengharum_ruangan",B48="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>48</v>
       </c>
@@ -8278,8 +9752,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A49,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" t="str">
+        <f>IF(OR(B49="sabun_cuci_tangan",B49="tisu",B49="pengharum_ruangan",B49="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -8295,8 +9773,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A50,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" t="str">
+        <f>IF(OR(B50="sabun_cuci_tangan",B50="tisu",B50="pengharum_ruangan",B50="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
@@ -8312,8 +9794,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A51,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" t="str">
+        <f>IF(OR(B51="sabun_cuci_tangan",B51="tisu",B51="pengharum_ruangan",B51="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>48</v>
       </c>
@@ -8329,8 +9815,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A52,all_locations!$E$1:$E$51,0))), "")</f>
         <v>47</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" t="str">
+        <f>IF(OR(B52="sabun_cuci_tangan",B52="tisu",B52="pengharum_ruangan",B52="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>51</v>
       </c>
@@ -8346,8 +9836,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A53,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" t="str">
+        <f>IF(OR(B53="sabun_cuci_tangan",B53="tisu",B53="pengharum_ruangan",B53="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>51</v>
       </c>
@@ -8363,8 +9857,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A54,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" t="str">
+        <f>IF(OR(B54="sabun_cuci_tangan",B54="tisu",B54="pengharum_ruangan",B54="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>51</v>
       </c>
@@ -8380,8 +9878,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A55,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" t="str">
+        <f>IF(OR(B55="sabun_cuci_tangan",B55="tisu",B55="pengharum_ruangan",B55="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>51</v>
       </c>
@@ -8397,8 +9899,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A56,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" t="str">
+        <f>IF(OR(B56="sabun_cuci_tangan",B56="tisu",B56="pengharum_ruangan",B56="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>51</v>
       </c>
@@ -8414,8 +9920,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A57,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" t="str">
+        <f>IF(OR(B57="sabun_cuci_tangan",B57="tisu",B57="pengharum_ruangan",B57="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
         <v>51</v>
       </c>
@@ -8431,8 +9941,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A58,all_locations!$E$1:$E$51,0))), "")</f>
         <v>48</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" t="str">
+        <f>IF(OR(B58="sabun_cuci_tangan",B58="tisu",B58="pengharum_ruangan",B58="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
         <v>54</v>
       </c>
@@ -8448,8 +9962,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A59,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" t="str">
+        <f>IF(OR(B59="sabun_cuci_tangan",B59="tisu",B59="pengharum_ruangan",B59="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>54</v>
       </c>
@@ -8465,8 +9983,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A60,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" t="str">
+        <f>IF(OR(B60="sabun_cuci_tangan",B60="tisu",B60="pengharum_ruangan",B60="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
         <v>54</v>
       </c>
@@ -8482,8 +10004,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A61,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" t="str">
+        <f>IF(OR(B61="sabun_cuci_tangan",B61="tisu",B61="pengharum_ruangan",B61="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
         <v>54</v>
       </c>
@@ -8499,8 +10025,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A62,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" t="str">
+        <f>IF(OR(B62="sabun_cuci_tangan",B62="tisu",B62="pengharum_ruangan",B62="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
         <v>54</v>
       </c>
@@ -8516,8 +10046,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A63,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" t="str">
+        <f>IF(OR(B63="sabun_cuci_tangan",B63="tisu",B63="pengharum_ruangan",B63="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>54</v>
       </c>
@@ -8533,8 +10067,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A64,all_locations!$E$1:$E$51,0))), "")</f>
         <v>49</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" t="str">
+        <f>IF(OR(B64="sabun_cuci_tangan",B64="tisu",B64="pengharum_ruangan",B64="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>57</v>
       </c>
@@ -8550,8 +10088,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A65,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" t="str">
+        <f>IF(OR(B65="sabun_cuci_tangan",B65="tisu",B65="pengharum_ruangan",B65="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
         <v>57</v>
       </c>
@@ -8567,8 +10109,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A66,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" t="str">
+        <f>IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan",B66="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
         <v>57</v>
       </c>
@@ -8584,8 +10130,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A67,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" t="str">
+        <f>IF(OR(B67="sabun_cuci_tangan",B67="tisu",B67="pengharum_ruangan",B67="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
         <v>57</v>
       </c>
@@ -8601,8 +10151,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A68,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" t="str">
+        <f>IF(OR(B68="sabun_cuci_tangan",B68="tisu",B68="pengharum_ruangan",B68="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
         <v>57</v>
       </c>
@@ -8618,8 +10172,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A69,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" t="str">
+        <f>IF(OR(B69="sabun_cuci_tangan",B69="tisu",B69="pengharum_ruangan",B69="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
         <v>57</v>
       </c>
@@ -8635,8 +10193,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A70,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" t="str">
+        <f>IF(OR(B70="sabun_cuci_tangan",B70="tisu",B70="pengharum_ruangan",B70="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
         <v>57</v>
       </c>
@@ -8652,8 +10214,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A71,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" t="str">
+        <f>IF(OR(B71="sabun_cuci_tangan",B71="tisu",B71="pengharum_ruangan",B71="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
         <v>57</v>
       </c>
@@ -8669,8 +10235,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A72,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" t="str">
+        <f>IF(OR(B72="sabun_cuci_tangan",B72="tisu",B72="pengharum_ruangan",B72="kamper"),"refill","non_refill")</f>
+        <v>refill</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="11" t="s">
         <v>57</v>
       </c>
@@ -8686,8 +10256,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A73,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" t="str">
+        <f>IF(OR(B73="sabun_cuci_tangan",B73="tisu",B73="pengharum_ruangan",B73="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="11" t="s">
         <v>57</v>
       </c>
@@ -8703,8 +10277,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A74,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" t="str">
+        <f>IF(OR(B74="sabun_cuci_tangan",B74="tisu",B74="pengharum_ruangan",B74="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="11" t="s">
         <v>57</v>
       </c>
@@ -8720,8 +10298,12 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A75,all_locations!$E$1:$E$51,0))), "")</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" t="str">
+        <f>IF(OR(B75="sabun_cuci_tangan",B75="tisu",B75="pengharum_ruangan",B75="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="11" t="s">
         <v>59</v>
       </c>
@@ -8737,108 +10319,122 @@
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A76,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" t="str">
+        <f>IF(OR(B76="sabun_cuci_tangan",B76="tisu",B76="pengharum_ruangan",B76="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>159</v>
+      <c r="B77" s="27" t="s">
+        <v>160</v>
       </c>
       <c r="C77" s="8"/>
       <c r="D77" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B77,all_items!$A$1:$A$57,0))), "")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A77,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" t="str">
+        <f>IF(OR(B77="sabun_cuci_tangan",B77="tisu",B77="pengharum_ruangan",B77="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C78" s="8"/>
       <c r="D78" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B78,all_items!$A$1:$A$57,0))), "")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E78" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A78,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" t="str">
+        <f>IF(OR(B78="sabun_cuci_tangan",B78="tisu",B78="pengharum_ruangan",B78="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B79,all_items!$A$1:$A$57,0))), "")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E79" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A79,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" t="str">
+        <f>IF(OR(B79="sabun_cuci_tangan",B79="tisu",B79="pengharum_ruangan",B79="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B80,all_items!$A$1:$A$57,0))), "")</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E80" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A80,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" t="str">
+        <f>IF(OR(B80="sabun_cuci_tangan",B80="tisu",B80="pengharum_ruangan",B80="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B81,all_items!$A$1:$A$57,0))), "")</f>
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E81" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A81,all_locations!$E$1:$E$51,0))), "")</f>
         <v>51</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="7">
-        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B82,all_items!$A$1:$A$57,0))), "")</f>
-        <v>27</v>
-      </c>
-      <c r="E82" s="7">
-        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A82,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>51</v>
-      </c>
+      <c r="F81" t="str">
+        <f>IF(OR(B81="sabun_cuci_tangan",B81="tisu",B81="pengharum_ruangan",B81="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E82">
@@ -8852,7 +10448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A26" workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -9312,7 +10908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B137"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:XFD116"/>
     </sheetView>
   </sheetViews>

--- a/cheklist_kebersihan.xlsx
+++ b/cheklist_kebersihan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp2\Documents\Bionic\bionic\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6F7499C-EABB-41C8-B4D1-C7D946745333}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D029ACE-1D93-446D-8900-275A311F5795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3270" yWindow="1245" windowWidth="21015" windowHeight="11295" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F2:F33" si="0">IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(OR(B3="sabun_cuci_tangan",B3="tisu",B3="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(OR(B4="sabun_cuci_tangan",B4="tisu",B4="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1676,7 +1676,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(OR(B5="sabun_cuci_tangan",B5="tisu",B5="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(OR(B6="sabun_cuci_tangan",B6="tisu",B6="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(OR(B7="sabun_cuci_tangan",B7="tisu",B7="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1745,7 +1745,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(OR(B8="sabun_cuci_tangan",B8="tisu",B8="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1768,7 +1768,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(OR(B9="sabun_cuci_tangan",B9="tisu",B9="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(OR(B10="sabun_cuci_tangan",B10="tisu",B10="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1814,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(OR(B11="sabun_cuci_tangan",B11="tisu",B11="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1837,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(OR(B12="sabun_cuci_tangan",B12="tisu",B12="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1860,7 +1860,7 @@
         <v>2</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(OR(B13="sabun_cuci_tangan",B13="tisu",B13="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1883,7 +1883,7 @@
         <v>2</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(OR(B14="sabun_cuci_tangan",B14="tisu",B14="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
         <v>2</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(OR(B15="sabun_cuci_tangan",B15="tisu",B15="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
         <v>2</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(OR(B16="sabun_cuci_tangan",B16="tisu",B16="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>2</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(OR(B17="sabun_cuci_tangan",B17="tisu",B17="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1975,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(OR(B18="sabun_cuci_tangan",B18="tisu",B18="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
         <v>2</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(OR(B19="sabun_cuci_tangan",B19="tisu",B19="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(OR(B20="sabun_cuci_tangan",B20="tisu",B20="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
         <v>3</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(OR(B21="sabun_cuci_tangan",B21="tisu",B21="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2067,7 +2067,7 @@
         <v>3</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(OR(B22="sabun_cuci_tangan",B22="tisu",B22="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
         <v>3</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(OR(B23="sabun_cuci_tangan",B23="tisu",B23="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(OR(B24="sabun_cuci_tangan",B24="tisu",B24="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>3</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(OR(B25="sabun_cuci_tangan",B25="tisu",B25="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(OR(B26="sabun_cuci_tangan",B26="tisu",B26="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2182,7 +2182,7 @@
         <v>3</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(OR(B27="sabun_cuci_tangan",B27="tisu",B27="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
         <v>4</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(OR(B28="sabun_cuci_tangan",B28="tisu",B28="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2228,7 +2228,7 @@
         <v>4</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(OR(B29="sabun_cuci_tangan",B29="tisu",B29="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2251,7 +2251,7 @@
         <v>4</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(OR(B30="sabun_cuci_tangan",B30="tisu",B30="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2274,7 +2274,7 @@
         <v>4</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(OR(B31="sabun_cuci_tangan",B31="tisu",B31="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
         <v>4</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(OR(B32="sabun_cuci_tangan",B32="tisu",B32="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>4</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(OR(B33="sabun_cuci_tangan",B33="tisu",B33="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
         <v>4</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F34:F65" si="1">IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -2366,7 +2366,7 @@
         <v>4</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(OR(B35="sabun_cuci_tangan",B35="tisu",B35="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2389,7 +2389,7 @@
         <v>5</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(OR(B36="sabun_cuci_tangan",B36="tisu",B36="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(OR(B37="sabun_cuci_tangan",B37="tisu",B37="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
         <v>5</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(OR(B38="sabun_cuci_tangan",B38="tisu",B38="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2458,7 +2458,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(OR(B39="sabun_cuci_tangan",B39="tisu",B39="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(OR(B40="sabun_cuci_tangan",B40="tisu",B40="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
         <v>5</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(OR(B41="sabun_cuci_tangan",B41="tisu",B41="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
         <v>5</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(OR(B42="sabun_cuci_tangan",B42="tisu",B42="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>5</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(OR(B43="sabun_cuci_tangan",B43="tisu",B43="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2573,7 +2573,7 @@
         <v>5</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(OR(B44="sabun_cuci_tangan",B44="tisu",B44="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(OR(B45="sabun_cuci_tangan",B45="tisu",B45="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>refill</v>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(OR(B46="sabun_cuci_tangan",B46="tisu",B46="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2642,7 +2642,7 @@
         <v>6</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(OR(B47="sabun_cuci_tangan",B47="tisu",B47="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2665,7 +2665,7 @@
         <v>6</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(OR(B48="sabun_cuci_tangan",B48="tisu",B48="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
         <v>6</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(OR(B49="sabun_cuci_tangan",B49="tisu",B49="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2711,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(OR(B50="sabun_cuci_tangan",B50="tisu",B50="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
         <v>6</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(OR(B51="sabun_cuci_tangan",B51="tisu",B51="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>refill</v>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(OR(B52="sabun_cuci_tangan",B52="tisu",B52="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2780,7 +2780,7 @@
         <v>6</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(OR(B53="sabun_cuci_tangan",B53="tisu",B53="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2803,7 +2803,7 @@
         <v>6</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(OR(B54="sabun_cuci_tangan",B54="tisu",B54="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>refill</v>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
         <v>6</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(OR(B55="sabun_cuci_tangan",B55="tisu",B55="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>refill</v>
       </c>
     </row>
@@ -2849,7 +2849,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(OR(B56="sabun_cuci_tangan",B56="tisu",B56="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(OR(B57="sabun_cuci_tangan",B57="tisu",B57="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
         <v>7</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(OR(B58="sabun_cuci_tangan",B58="tisu",B58="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(OR(B59="sabun_cuci_tangan",B59="tisu",B59="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2941,7 +2941,7 @@
         <v>7</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(OR(B60="sabun_cuci_tangan",B60="tisu",B60="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2964,7 +2964,7 @@
         <v>8</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(OR(B61="sabun_cuci_tangan",B61="tisu",B61="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -2987,7 +2987,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(OR(B62="sabun_cuci_tangan",B62="tisu",B62="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3010,7 +3010,7 @@
         <v>8</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(OR(B63="sabun_cuci_tangan",B63="tisu",B63="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
         <v>8</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(OR(B64="sabun_cuci_tangan",B64="tisu",B64="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(OR(B65="sabun_cuci_tangan",B65="tisu",B65="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3079,7 +3079,7 @@
         <v>8</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F66:F97" si="2">IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -3102,7 +3102,7 @@
         <v>8</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(OR(B67="sabun_cuci_tangan",B67="tisu",B67="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3125,7 +3125,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(OR(B68="sabun_cuci_tangan",B68="tisu",B68="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3148,7 +3148,7 @@
         <v>9</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(OR(B69="sabun_cuci_tangan",B69="tisu",B69="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3171,7 +3171,7 @@
         <v>9</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(OR(B70="sabun_cuci_tangan",B70="tisu",B70="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3194,7 +3194,7 @@
         <v>9</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(OR(B71="sabun_cuci_tangan",B71="tisu",B71="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
         <v>9</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(OR(B72="sabun_cuci_tangan",B72="tisu",B72="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(OR(B73="sabun_cuci_tangan",B73="tisu",B73="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3263,7 +3263,7 @@
         <v>9</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(OR(B74="sabun_cuci_tangan",B74="tisu",B74="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
         <v>9</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(OR(B75="sabun_cuci_tangan",B75="tisu",B75="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
         <v>9</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(OR(B76="sabun_cuci_tangan",B76="tisu",B76="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3332,7 +3332,7 @@
         <v>9</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(OR(B77="sabun_cuci_tangan",B77="tisu",B77="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3355,7 +3355,7 @@
         <v>9</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(OR(B78="sabun_cuci_tangan",B78="tisu",B78="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
         <v>10</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(OR(B79="sabun_cuci_tangan",B79="tisu",B79="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
         <v>10</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(OR(B80="sabun_cuci_tangan",B80="tisu",B80="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
         <v>10</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(OR(B81="sabun_cuci_tangan",B81="tisu",B81="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3447,7 +3447,7 @@
         <v>10</v>
       </c>
       <c r="F82" t="str">
-        <f>IF(OR(B82="sabun_cuci_tangan",B82="tisu",B82="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="F83" t="str">
-        <f>IF(OR(B83="sabun_cuci_tangan",B83="tisu",B83="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3493,7 +3493,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="str">
-        <f>IF(OR(B84="sabun_cuci_tangan",B84="tisu",B84="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>refill</v>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
         <v>10</v>
       </c>
       <c r="F85" t="str">
-        <f>IF(OR(B85="sabun_cuci_tangan",B85="tisu",B85="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3539,7 +3539,7 @@
         <v>10</v>
       </c>
       <c r="F86" t="str">
-        <f>IF(OR(B86="sabun_cuci_tangan",B86="tisu",B86="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
         <v>10</v>
       </c>
       <c r="F87" t="str">
-        <f>IF(OR(B87="sabun_cuci_tangan",B87="tisu",B87="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3585,7 +3585,7 @@
         <v>11</v>
       </c>
       <c r="F88" t="str">
-        <f>IF(OR(B88="sabun_cuci_tangan",B88="tisu",B88="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
         <v>11</v>
       </c>
       <c r="F89" t="str">
-        <f>IF(OR(B89="sabun_cuci_tangan",B89="tisu",B89="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3631,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="F90" t="str">
-        <f>IF(OR(B90="sabun_cuci_tangan",B90="tisu",B90="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3654,7 +3654,7 @@
         <v>11</v>
       </c>
       <c r="F91" t="str">
-        <f>IF(OR(B91="sabun_cuci_tangan",B91="tisu",B91="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3677,7 +3677,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="str">
-        <f>IF(OR(B92="sabun_cuci_tangan",B92="tisu",B92="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3700,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="F93" t="str">
-        <f>IF(OR(B93="sabun_cuci_tangan",B93="tisu",B93="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>refill</v>
       </c>
     </row>
@@ -3723,7 +3723,7 @@
         <v>11</v>
       </c>
       <c r="F94" t="str">
-        <f>IF(OR(B94="sabun_cuci_tangan",B94="tisu",B94="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3746,7 +3746,7 @@
         <v>11</v>
       </c>
       <c r="F95" t="str">
-        <f>IF(OR(B95="sabun_cuci_tangan",B95="tisu",B95="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
         <v>11</v>
       </c>
       <c r="F96" t="str">
-        <f>IF(OR(B96="sabun_cuci_tangan",B96="tisu",B96="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>refill</v>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
         <v>11</v>
       </c>
       <c r="F97" t="str">
-        <f>IF(OR(B97="sabun_cuci_tangan",B97="tisu",B97="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>refill</v>
       </c>
     </row>
@@ -3815,7 +3815,7 @@
         <v>11</v>
       </c>
       <c r="F98" t="str">
-        <f>IF(OR(B98="sabun_cuci_tangan",B98="tisu",B98="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F98:F129" si="3">IF(OR(B98="sabun_cuci_tangan",B98="tisu",B98="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -3838,7 +3838,7 @@
         <v>12</v>
       </c>
       <c r="F99" t="str">
-        <f>IF(OR(B99="sabun_cuci_tangan",B99="tisu",B99="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
         <v>12</v>
       </c>
       <c r="F100" t="str">
-        <f>IF(OR(B100="sabun_cuci_tangan",B100="tisu",B100="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
         <v>12</v>
       </c>
       <c r="F101" t="str">
-        <f>IF(OR(B101="sabun_cuci_tangan",B101="tisu",B101="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3907,7 +3907,7 @@
         <v>12</v>
       </c>
       <c r="F102" t="str">
-        <f>IF(OR(B102="sabun_cuci_tangan",B102="tisu",B102="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3930,7 +3930,7 @@
         <v>12</v>
       </c>
       <c r="F103" t="str">
-        <f>IF(OR(B103="sabun_cuci_tangan",B103="tisu",B103="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
         <v>12</v>
       </c>
       <c r="F104" t="str">
-        <f>IF(OR(B104="sabun_cuci_tangan",B104="tisu",B104="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3976,7 +3976,7 @@
         <v>13</v>
       </c>
       <c r="F105" t="str">
-        <f>IF(OR(B105="sabun_cuci_tangan",B105="tisu",B105="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
         <v>13</v>
       </c>
       <c r="F106" t="str">
-        <f>IF(OR(B106="sabun_cuci_tangan",B106="tisu",B106="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4022,7 +4022,7 @@
         <v>13</v>
       </c>
       <c r="F107" t="str">
-        <f>IF(OR(B107="sabun_cuci_tangan",B107="tisu",B107="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>13</v>
       </c>
       <c r="F108" t="str">
-        <f>IF(OR(B108="sabun_cuci_tangan",B108="tisu",B108="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4068,7 +4068,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="str">
-        <f>IF(OR(B109="sabun_cuci_tangan",B109="tisu",B109="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>refill</v>
       </c>
     </row>
@@ -4091,7 +4091,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="str">
-        <f>IF(OR(B110="sabun_cuci_tangan",B110="tisu",B110="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4114,7 +4114,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="str">
-        <f>IF(OR(B111="sabun_cuci_tangan",B111="tisu",B111="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
         <v>13</v>
       </c>
       <c r="F112" t="str">
-        <f>IF(OR(B112="sabun_cuci_tangan",B112="tisu",B112="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
         <v>14</v>
       </c>
       <c r="F113" t="str">
-        <f>IF(OR(B113="sabun_cuci_tangan",B113="tisu",B113="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4183,7 +4183,7 @@
         <v>14</v>
       </c>
       <c r="F114" t="str">
-        <f>IF(OR(B114="sabun_cuci_tangan",B114="tisu",B114="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
         <v>14</v>
       </c>
       <c r="F115" t="str">
-        <f>IF(OR(B115="sabun_cuci_tangan",B115="tisu",B115="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4229,7 +4229,7 @@
         <v>14</v>
       </c>
       <c r="F116" t="str">
-        <f>IF(OR(B116="sabun_cuci_tangan",B116="tisu",B116="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4252,7 +4252,7 @@
         <v>14</v>
       </c>
       <c r="F117" t="str">
-        <f>IF(OR(B117="sabun_cuci_tangan",B117="tisu",B117="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4275,7 +4275,7 @@
         <v>14</v>
       </c>
       <c r="F118" t="str">
-        <f>IF(OR(B118="sabun_cuci_tangan",B118="tisu",B118="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4298,7 +4298,7 @@
         <v>14</v>
       </c>
       <c r="F119" t="str">
-        <f>IF(OR(B119="sabun_cuci_tangan",B119="tisu",B119="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4321,7 +4321,7 @@
         <v>14</v>
       </c>
       <c r="F120" t="str">
-        <f>IF(OR(B120="sabun_cuci_tangan",B120="tisu",B120="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4344,7 +4344,7 @@
         <v>15</v>
       </c>
       <c r="F121" t="str">
-        <f>IF(OR(B121="sabun_cuci_tangan",B121="tisu",B121="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4367,7 +4367,7 @@
         <v>15</v>
       </c>
       <c r="F122" t="str">
-        <f>IF(OR(B122="sabun_cuci_tangan",B122="tisu",B122="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4390,7 +4390,7 @@
         <v>15</v>
       </c>
       <c r="F123" t="str">
-        <f>IF(OR(B123="sabun_cuci_tangan",B123="tisu",B123="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
         <v>15</v>
       </c>
       <c r="F124" t="str">
-        <f>IF(OR(B124="sabun_cuci_tangan",B124="tisu",B124="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4436,7 +4436,7 @@
         <v>15</v>
       </c>
       <c r="F125" t="str">
-        <f>IF(OR(B125="sabun_cuci_tangan",B125="tisu",B125="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4459,7 +4459,7 @@
         <v>15</v>
       </c>
       <c r="F126" t="str">
-        <f>IF(OR(B126="sabun_cuci_tangan",B126="tisu",B126="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4482,7 +4482,7 @@
         <v>15</v>
       </c>
       <c r="F127" t="str">
-        <f>IF(OR(B127="sabun_cuci_tangan",B127="tisu",B127="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4505,7 +4505,7 @@
         <v>15</v>
       </c>
       <c r="F128" t="str">
-        <f>IF(OR(B128="sabun_cuci_tangan",B128="tisu",B128="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         <v>15</v>
       </c>
       <c r="F129" t="str">
-        <f>IF(OR(B129="sabun_cuci_tangan",B129="tisu",B129="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="3"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4551,7 +4551,7 @@
         <v>16</v>
       </c>
       <c r="F130" t="str">
-        <f>IF(OR(B130="sabun_cuci_tangan",B130="tisu",B130="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F130:F161" si="4">IF(OR(B130="sabun_cuci_tangan",B130="tisu",B130="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -4574,7 +4574,7 @@
         <v>16</v>
       </c>
       <c r="F131" t="str">
-        <f>IF(OR(B131="sabun_cuci_tangan",B131="tisu",B131="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4597,7 +4597,7 @@
         <v>16</v>
       </c>
       <c r="F132" t="str">
-        <f>IF(OR(B132="sabun_cuci_tangan",B132="tisu",B132="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
         <v>16</v>
       </c>
       <c r="F133" t="str">
-        <f>IF(OR(B133="sabun_cuci_tangan",B133="tisu",B133="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
         <v>16</v>
       </c>
       <c r="F134" t="str">
-        <f>IF(OR(B134="sabun_cuci_tangan",B134="tisu",B134="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4666,7 +4666,7 @@
         <v>16</v>
       </c>
       <c r="F135" t="str">
-        <f>IF(OR(B135="sabun_cuci_tangan",B135="tisu",B135="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
         <v>16</v>
       </c>
       <c r="F136" t="str">
-        <f>IF(OR(B136="sabun_cuci_tangan",B136="tisu",B136="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4712,7 +4712,7 @@
         <v>16</v>
       </c>
       <c r="F137" t="str">
-        <f>IF(OR(B137="sabun_cuci_tangan",B137="tisu",B137="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4735,7 +4735,7 @@
         <v>16</v>
       </c>
       <c r="F138" t="str">
-        <f>IF(OR(B138="sabun_cuci_tangan",B138="tisu",B138="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
         <v>16</v>
       </c>
       <c r="F139" t="str">
-        <f>IF(OR(B139="sabun_cuci_tangan",B139="tisu",B139="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="str">
-        <f>IF(OR(B140="sabun_cuci_tangan",B140="tisu",B140="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4804,7 +4804,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="str">
-        <f>IF(OR(B141="sabun_cuci_tangan",B141="tisu",B141="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="str">
-        <f>IF(OR(B142="sabun_cuci_tangan",B142="tisu",B142="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="str">
-        <f>IF(OR(B143="sabun_cuci_tangan",B143="tisu",B143="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4873,7 +4873,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="str">
-        <f>IF(OR(B144="sabun_cuci_tangan",B144="tisu",B144="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4896,7 +4896,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="str">
-        <f>IF(OR(B145="sabun_cuci_tangan",B145="tisu",B145="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="str">
-        <f>IF(OR(B146="sabun_cuci_tangan",B146="tisu",B146="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4942,7 +4942,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="str">
-        <f>IF(OR(B147="sabun_cuci_tangan",B147="tisu",B147="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="str">
-        <f>IF(OR(B148="sabun_cuci_tangan",B148="tisu",B148="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -4988,7 +4988,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="str">
-        <f>IF(OR(B149="sabun_cuci_tangan",B149="tisu",B149="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5011,7 +5011,7 @@
         <v>18</v>
       </c>
       <c r="F150" t="str">
-        <f>IF(OR(B150="sabun_cuci_tangan",B150="tisu",B150="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
         <v>18</v>
       </c>
       <c r="F151" t="str">
-        <f>IF(OR(B151="sabun_cuci_tangan",B151="tisu",B151="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5057,7 +5057,7 @@
         <v>18</v>
       </c>
       <c r="F152" t="str">
-        <f>IF(OR(B152="sabun_cuci_tangan",B152="tisu",B152="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5080,7 +5080,7 @@
         <v>18</v>
       </c>
       <c r="F153" t="str">
-        <f>IF(OR(B153="sabun_cuci_tangan",B153="tisu",B153="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5103,7 +5103,7 @@
         <v>18</v>
       </c>
       <c r="F154" t="str">
-        <f>IF(OR(B154="sabun_cuci_tangan",B154="tisu",B154="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5126,7 +5126,7 @@
         <v>18</v>
       </c>
       <c r="F155" t="str">
-        <f>IF(OR(B155="sabun_cuci_tangan",B155="tisu",B155="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5149,7 +5149,7 @@
         <v>18</v>
       </c>
       <c r="F156" t="str">
-        <f>IF(OR(B156="sabun_cuci_tangan",B156="tisu",B156="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
         <v>18</v>
       </c>
       <c r="F157" t="str">
-        <f>IF(OR(B157="sabun_cuci_tangan",B157="tisu",B157="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
         <v>19</v>
       </c>
       <c r="F158" t="str">
-        <f>IF(OR(B158="sabun_cuci_tangan",B158="tisu",B158="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
         <v>19</v>
       </c>
       <c r="F159" t="str">
-        <f>IF(OR(B159="sabun_cuci_tangan",B159="tisu",B159="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
         <v>19</v>
       </c>
       <c r="F160" t="str">
-        <f>IF(OR(B160="sabun_cuci_tangan",B160="tisu",B160="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5264,7 +5264,7 @@
         <v>19</v>
       </c>
       <c r="F161" t="str">
-        <f>IF(OR(B161="sabun_cuci_tangan",B161="tisu",B161="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="4"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>19</v>
       </c>
       <c r="F162" t="str">
-        <f>IF(OR(B162="sabun_cuci_tangan",B162="tisu",B162="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" ref="F162:F183" si="5">IF(OR(B162="sabun_cuci_tangan",B162="tisu",B162="pengharum_ruangan"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -5310,7 +5310,7 @@
         <v>19</v>
       </c>
       <c r="F163" t="str">
-        <f>IF(OR(B163="sabun_cuci_tangan",B163="tisu",B163="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5333,7 +5333,7 @@
         <v>19</v>
       </c>
       <c r="F164" t="str">
-        <f>IF(OR(B164="sabun_cuci_tangan",B164="tisu",B164="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5356,7 +5356,7 @@
         <v>19</v>
       </c>
       <c r="F165" t="str">
-        <f>IF(OR(B165="sabun_cuci_tangan",B165="tisu",B165="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5379,7 +5379,7 @@
         <v>19</v>
       </c>
       <c r="F166" t="str">
-        <f>IF(OR(B166="sabun_cuci_tangan",B166="tisu",B166="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5402,7 +5402,7 @@
         <v>19</v>
       </c>
       <c r="F167" t="str">
-        <f>IF(OR(B167="sabun_cuci_tangan",B167="tisu",B167="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5425,7 +5425,7 @@
         <v>20</v>
       </c>
       <c r="F168" t="str">
-        <f>IF(OR(B168="sabun_cuci_tangan",B168="tisu",B168="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
         <v>20</v>
       </c>
       <c r="F169" t="str">
-        <f>IF(OR(B169="sabun_cuci_tangan",B169="tisu",B169="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5471,7 +5471,7 @@
         <v>20</v>
       </c>
       <c r="F170" t="str">
-        <f>IF(OR(B170="sabun_cuci_tangan",B170="tisu",B170="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5494,7 +5494,7 @@
         <v>20</v>
       </c>
       <c r="F171" t="str">
-        <f>IF(OR(B171="sabun_cuci_tangan",B171="tisu",B171="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5517,7 +5517,7 @@
         <v>20</v>
       </c>
       <c r="F172" t="str">
-        <f>IF(OR(B172="sabun_cuci_tangan",B172="tisu",B172="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5540,7 +5540,7 @@
         <v>20</v>
       </c>
       <c r="F173" t="str">
-        <f>IF(OR(B173="sabun_cuci_tangan",B173="tisu",B173="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5563,7 +5563,7 @@
         <v>20</v>
       </c>
       <c r="F174" t="str">
-        <f>IF(OR(B174="sabun_cuci_tangan",B174="tisu",B174="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5586,7 +5586,7 @@
         <v>20</v>
       </c>
       <c r="F175" t="str">
-        <f>IF(OR(B175="sabun_cuci_tangan",B175="tisu",B175="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5609,7 +5609,7 @@
         <v>21</v>
       </c>
       <c r="F176" t="str">
-        <f>IF(OR(B176="sabun_cuci_tangan",B176="tisu",B176="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5632,7 +5632,7 @@
         <v>21</v>
       </c>
       <c r="F177" t="str">
-        <f>IF(OR(B177="sabun_cuci_tangan",B177="tisu",B177="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>21</v>
       </c>
       <c r="F178" t="str">
-        <f>IF(OR(B178="sabun_cuci_tangan",B178="tisu",B178="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5678,7 +5678,7 @@
         <v>21</v>
       </c>
       <c r="F179" t="str">
-        <f>IF(OR(B179="sabun_cuci_tangan",B179="tisu",B179="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
         <v>21</v>
       </c>
       <c r="F180" t="str">
-        <f>IF(OR(B180="sabun_cuci_tangan",B180="tisu",B180="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5724,7 +5724,7 @@
         <v>21</v>
       </c>
       <c r="F181" t="str">
-        <f>IF(OR(B181="sabun_cuci_tangan",B181="tisu",B181="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5747,7 +5747,7 @@
         <v>21</v>
       </c>
       <c r="F182" t="str">
-        <f>IF(OR(B182="sabun_cuci_tangan",B182="tisu",B182="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -5770,7 +5770,7 @@
         <v>21</v>
       </c>
       <c r="F183" t="str">
-        <f>IF(OR(B183="sabun_cuci_tangan",B183="tisu",B183="pengharum_ruangan"),"refill","non_refill")</f>
+        <f t="shared" si="5"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -8766,7 +8766,7 @@
         <v>41</v>
       </c>
       <c r="F2" t="str">
-        <f>IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan",B2="kamper"),"refill","non_refill")</f>
+        <f t="shared" ref="F2:F33" si="0">IF(OR(B2="sabun_cuci_tangan",B2="tisu",B2="pengharum_ruangan",B2="kamper"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -8787,7 +8787,7 @@
         <v>41</v>
       </c>
       <c r="F3" t="str">
-        <f>IF(OR(B3="sabun_cuci_tangan",B3="tisu",B3="pengharum_ruangan",B3="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8808,7 +8808,7 @@
         <v>41</v>
       </c>
       <c r="F4" t="str">
-        <f>IF(OR(B4="sabun_cuci_tangan",B4="tisu",B4="pengharum_ruangan",B4="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
         <v>41</v>
       </c>
       <c r="F5" t="str">
-        <f>IF(OR(B5="sabun_cuci_tangan",B5="tisu",B5="pengharum_ruangan",B5="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
         <v>41</v>
       </c>
       <c r="F6" t="str">
-        <f>IF(OR(B6="sabun_cuci_tangan",B6="tisu",B6="pengharum_ruangan",B6="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8871,7 +8871,7 @@
         <v>41</v>
       </c>
       <c r="F7" t="str">
-        <f>IF(OR(B7="sabun_cuci_tangan",B7="tisu",B7="pengharum_ruangan",B7="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8892,7 +8892,7 @@
         <v>41</v>
       </c>
       <c r="F8" t="str">
-        <f>IF(OR(B8="sabun_cuci_tangan",B8="tisu",B8="pengharum_ruangan",B8="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
         <v>41</v>
       </c>
       <c r="F9" t="str">
-        <f>IF(OR(B9="sabun_cuci_tangan",B9="tisu",B9="pengharum_ruangan",B9="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>refill</v>
       </c>
     </row>
@@ -8934,7 +8934,7 @@
         <v>41</v>
       </c>
       <c r="F10" t="str">
-        <f>IF(OR(B10="sabun_cuci_tangan",B10="tisu",B10="pengharum_ruangan",B10="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8955,7 +8955,7 @@
         <v>41</v>
       </c>
       <c r="F11" t="str">
-        <f>IF(OR(B11="sabun_cuci_tangan",B11="tisu",B11="pengharum_ruangan",B11="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
         <v>41</v>
       </c>
       <c r="F12" t="str">
-        <f>IF(OR(B12="sabun_cuci_tangan",B12="tisu",B12="pengharum_ruangan",B12="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -8997,7 +8997,7 @@
         <v>42</v>
       </c>
       <c r="F13" t="str">
-        <f>IF(OR(B13="sabun_cuci_tangan",B13="tisu",B13="pengharum_ruangan",B13="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
         <v>42</v>
       </c>
       <c r="F14" t="str">
-        <f>IF(OR(B14="sabun_cuci_tangan",B14="tisu",B14="pengharum_ruangan",B14="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9039,7 +9039,7 @@
         <v>42</v>
       </c>
       <c r="F15" t="str">
-        <f>IF(OR(B15="sabun_cuci_tangan",B15="tisu",B15="pengharum_ruangan",B15="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9060,7 +9060,7 @@
         <v>42</v>
       </c>
       <c r="F16" t="str">
-        <f>IF(OR(B16="sabun_cuci_tangan",B16="tisu",B16="pengharum_ruangan",B16="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="str">
-        <f>IF(OR(B17="sabun_cuci_tangan",B17="tisu",B17="pengharum_ruangan",B17="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
         <v>42</v>
       </c>
       <c r="F18" t="str">
-        <f>IF(OR(B18="sabun_cuci_tangan",B18="tisu",B18="pengharum_ruangan",B18="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9123,7 +9123,7 @@
         <v>42</v>
       </c>
       <c r="F19" t="str">
-        <f>IF(OR(B19="sabun_cuci_tangan",B19="tisu",B19="pengharum_ruangan",B19="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9144,7 +9144,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="str">
-        <f>IF(OR(B20="sabun_cuci_tangan",B20="tisu",B20="pengharum_ruangan",B20="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="str">
-        <f>IF(OR(B21="sabun_cuci_tangan",B21="tisu",B21="pengharum_ruangan",B21="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9186,7 +9186,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="str">
-        <f>IF(OR(B22="sabun_cuci_tangan",B22="tisu",B22="pengharum_ruangan",B22="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9207,7 +9207,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="str">
-        <f>IF(OR(B23="sabun_cuci_tangan",B23="tisu",B23="pengharum_ruangan",B23="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="str">
-        <f>IF(OR(B24="sabun_cuci_tangan",B24="tisu",B24="pengharum_ruangan",B24="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9249,7 +9249,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="str">
-        <f>IF(OR(B25="sabun_cuci_tangan",B25="tisu",B25="pengharum_ruangan",B25="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9270,7 +9270,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="str">
-        <f>IF(OR(B26="sabun_cuci_tangan",B26="tisu",B26="pengharum_ruangan",B26="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="str">
-        <f>IF(OR(B27="sabun_cuci_tangan",B27="tisu",B27="pengharum_ruangan",B27="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9312,7 +9312,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="str">
-        <f>IF(OR(B28="sabun_cuci_tangan",B28="tisu",B28="pengharum_ruangan",B28="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="str">
-        <f>IF(OR(B29="sabun_cuci_tangan",B29="tisu",B29="pengharum_ruangan",B29="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="str">
-        <f>IF(OR(B30="sabun_cuci_tangan",B30="tisu",B30="pengharum_ruangan",B30="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9375,7 +9375,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="str">
-        <f>IF(OR(B31="sabun_cuci_tangan",B31="tisu",B31="pengharum_ruangan",B31="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9396,7 +9396,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="str">
-        <f>IF(OR(B32="sabun_cuci_tangan",B32="tisu",B32="pengharum_ruangan",B32="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>45</v>
       </c>
       <c r="F33" t="str">
-        <f>IF(OR(B33="sabun_cuci_tangan",B33="tisu",B33="pengharum_ruangan",B33="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="0"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9438,7 +9438,7 @@
         <v>45</v>
       </c>
       <c r="F34" t="str">
-        <f>IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan",B34="kamper"),"refill","non_refill")</f>
+        <f t="shared" ref="F34:F65" si="1">IF(OR(B34="sabun_cuci_tangan",B34="tisu",B34="pengharum_ruangan",B34="kamper"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -9459,7 +9459,7 @@
         <v>45</v>
       </c>
       <c r="F35" t="str">
-        <f>IF(OR(B35="sabun_cuci_tangan",B35="tisu",B35="pengharum_ruangan",B35="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>45</v>
       </c>
       <c r="F36" t="str">
-        <f>IF(OR(B36="sabun_cuci_tangan",B36="tisu",B36="pengharum_ruangan",B36="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9501,7 +9501,7 @@
         <v>45</v>
       </c>
       <c r="F37" t="str">
-        <f>IF(OR(B37="sabun_cuci_tangan",B37="tisu",B37="pengharum_ruangan",B37="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9522,7 +9522,7 @@
         <v>45</v>
       </c>
       <c r="F38" t="str">
-        <f>IF(OR(B38="sabun_cuci_tangan",B38="tisu",B38="pengharum_ruangan",B38="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
         <v>46</v>
       </c>
       <c r="F39" t="str">
-        <f>IF(OR(B39="sabun_cuci_tangan",B39="tisu",B39="pengharum_ruangan",B39="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9564,7 +9564,7 @@
         <v>46</v>
       </c>
       <c r="F40" t="str">
-        <f>IF(OR(B40="sabun_cuci_tangan",B40="tisu",B40="pengharum_ruangan",B40="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
         <v>46</v>
       </c>
       <c r="F41" t="str">
-        <f>IF(OR(B41="sabun_cuci_tangan",B41="tisu",B41="pengharum_ruangan",B41="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
         <v>46</v>
       </c>
       <c r="F42" t="str">
-        <f>IF(OR(B42="sabun_cuci_tangan",B42="tisu",B42="pengharum_ruangan",B42="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9627,7 +9627,7 @@
         <v>46</v>
       </c>
       <c r="F43" t="str">
-        <f>IF(OR(B43="sabun_cuci_tangan",B43="tisu",B43="pengharum_ruangan",B43="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9648,7 +9648,7 @@
         <v>46</v>
       </c>
       <c r="F44" t="str">
-        <f>IF(OR(B44="sabun_cuci_tangan",B44="tisu",B44="pengharum_ruangan",B44="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
         <v>46</v>
       </c>
       <c r="F45" t="str">
-        <f>IF(OR(B45="sabun_cuci_tangan",B45="tisu",B45="pengharum_ruangan",B45="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9690,7 +9690,7 @@
         <v>47</v>
       </c>
       <c r="F46" t="str">
-        <f>IF(OR(B46="sabun_cuci_tangan",B46="tisu",B46="pengharum_ruangan",B46="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9711,7 +9711,7 @@
         <v>47</v>
       </c>
       <c r="F47" t="str">
-        <f>IF(OR(B47="sabun_cuci_tangan",B47="tisu",B47="pengharum_ruangan",B47="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9732,7 +9732,7 @@
         <v>47</v>
       </c>
       <c r="F48" t="str">
-        <f>IF(OR(B48="sabun_cuci_tangan",B48="tisu",B48="pengharum_ruangan",B48="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
         <v>47</v>
       </c>
       <c r="F49" t="str">
-        <f>IF(OR(B49="sabun_cuci_tangan",B49="tisu",B49="pengharum_ruangan",B49="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9774,7 +9774,7 @@
         <v>47</v>
       </c>
       <c r="F50" t="str">
-        <f>IF(OR(B50="sabun_cuci_tangan",B50="tisu",B50="pengharum_ruangan",B50="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
         <v>47</v>
       </c>
       <c r="F51" t="str">
-        <f>IF(OR(B51="sabun_cuci_tangan",B51="tisu",B51="pengharum_ruangan",B51="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9816,7 +9816,7 @@
         <v>47</v>
       </c>
       <c r="F52" t="str">
-        <f>IF(OR(B52="sabun_cuci_tangan",B52="tisu",B52="pengharum_ruangan",B52="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
         <v>48</v>
       </c>
       <c r="F53" t="str">
-        <f>IF(OR(B53="sabun_cuci_tangan",B53="tisu",B53="pengharum_ruangan",B53="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
         <v>48</v>
       </c>
       <c r="F54" t="str">
-        <f>IF(OR(B54="sabun_cuci_tangan",B54="tisu",B54="pengharum_ruangan",B54="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9879,7 +9879,7 @@
         <v>48</v>
       </c>
       <c r="F55" t="str">
-        <f>IF(OR(B55="sabun_cuci_tangan",B55="tisu",B55="pengharum_ruangan",B55="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9900,7 +9900,7 @@
         <v>48</v>
       </c>
       <c r="F56" t="str">
-        <f>IF(OR(B56="sabun_cuci_tangan",B56="tisu",B56="pengharum_ruangan",B56="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
         <v>48</v>
       </c>
       <c r="F57" t="str">
-        <f>IF(OR(B57="sabun_cuci_tangan",B57="tisu",B57="pengharum_ruangan",B57="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9942,7 +9942,7 @@
         <v>48</v>
       </c>
       <c r="F58" t="str">
-        <f>IF(OR(B58="sabun_cuci_tangan",B58="tisu",B58="pengharum_ruangan",B58="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9963,7 +9963,7 @@
         <v>49</v>
       </c>
       <c r="F59" t="str">
-        <f>IF(OR(B59="sabun_cuci_tangan",B59="tisu",B59="pengharum_ruangan",B59="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <v>49</v>
       </c>
       <c r="F60" t="str">
-        <f>IF(OR(B60="sabun_cuci_tangan",B60="tisu",B60="pengharum_ruangan",B60="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10005,7 +10005,7 @@
         <v>49</v>
       </c>
       <c r="F61" t="str">
-        <f>IF(OR(B61="sabun_cuci_tangan",B61="tisu",B61="pengharum_ruangan",B61="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10026,7 +10026,7 @@
         <v>49</v>
       </c>
       <c r="F62" t="str">
-        <f>IF(OR(B62="sabun_cuci_tangan",B62="tisu",B62="pengharum_ruangan",B62="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
         <v>49</v>
       </c>
       <c r="F63" t="str">
-        <f>IF(OR(B63="sabun_cuci_tangan",B63="tisu",B63="pengharum_ruangan",B63="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10068,7 +10068,7 @@
         <v>49</v>
       </c>
       <c r="F64" t="str">
-        <f>IF(OR(B64="sabun_cuci_tangan",B64="tisu",B64="pengharum_ruangan",B64="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
         <v>50</v>
       </c>
       <c r="F65" t="str">
-        <f>IF(OR(B65="sabun_cuci_tangan",B65="tisu",B65="pengharum_ruangan",B65="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="1"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
         <v>50</v>
       </c>
       <c r="F66" t="str">
-        <f>IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan",B66="kamper"),"refill","non_refill")</f>
+        <f t="shared" ref="F66:F81" si="2">IF(OR(B66="sabun_cuci_tangan",B66="tisu",B66="pengharum_ruangan",B66="kamper"),"refill","non_refill")</f>
         <v>non_refill</v>
       </c>
     </row>
@@ -10131,7 +10131,7 @@
         <v>50</v>
       </c>
       <c r="F67" t="str">
-        <f>IF(OR(B67="sabun_cuci_tangan",B67="tisu",B67="pengharum_ruangan",B67="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10152,7 +10152,7 @@
         <v>50</v>
       </c>
       <c r="F68" t="str">
-        <f>IF(OR(B68="sabun_cuci_tangan",B68="tisu",B68="pengharum_ruangan",B68="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
         <v>50</v>
       </c>
       <c r="F69" t="str">
-        <f>IF(OR(B69="sabun_cuci_tangan",B69="tisu",B69="pengharum_ruangan",B69="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10194,7 +10194,7 @@
         <v>50</v>
       </c>
       <c r="F70" t="str">
-        <f>IF(OR(B70="sabun_cuci_tangan",B70="tisu",B70="pengharum_ruangan",B70="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10215,7 +10215,7 @@
         <v>50</v>
       </c>
       <c r="F71" t="str">
-        <f>IF(OR(B71="sabun_cuci_tangan",B71="tisu",B71="pengharum_ruangan",B71="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
         <v>50</v>
       </c>
       <c r="F72" t="str">
-        <f>IF(OR(B72="sabun_cuci_tangan",B72="tisu",B72="pengharum_ruangan",B72="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>refill</v>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
         <v>50</v>
       </c>
       <c r="F73" t="str">
-        <f>IF(OR(B73="sabun_cuci_tangan",B73="tisu",B73="pengharum_ruangan",B73="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10278,7 +10278,7 @@
         <v>50</v>
       </c>
       <c r="F74" t="str">
-        <f>IF(OR(B74="sabun_cuci_tangan",B74="tisu",B74="pengharum_ruangan",B74="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
         <v>50</v>
       </c>
       <c r="F75" t="str">
-        <f>IF(OR(B75="sabun_cuci_tangan",B75="tisu",B75="pengharum_ruangan",B75="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10320,7 +10320,7 @@
         <v>51</v>
       </c>
       <c r="F76" t="str">
-        <f>IF(OR(B76="sabun_cuci_tangan",B76="tisu",B76="pengharum_ruangan",B76="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
         <v>51</v>
       </c>
       <c r="F77" t="str">
-        <f>IF(OR(B77="sabun_cuci_tangan",B77="tisu",B77="pengharum_ruangan",B77="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
         <v>51</v>
       </c>
       <c r="F78" t="str">
-        <f>IF(OR(B78="sabun_cuci_tangan",B78="tisu",B78="pengharum_ruangan",B78="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10383,7 +10383,7 @@
         <v>51</v>
       </c>
       <c r="F79" t="str">
-        <f>IF(OR(B79="sabun_cuci_tangan",B79="tisu",B79="pengharum_ruangan",B79="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10404,7 +10404,7 @@
         <v>51</v>
       </c>
       <c r="F80" t="str">
-        <f>IF(OR(B80="sabun_cuci_tangan",B80="tisu",B80="pengharum_ruangan",B80="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
         <v>51</v>
       </c>
       <c r="F81" t="str">
-        <f>IF(OR(B81="sabun_cuci_tangan",B81="tisu",B81="pengharum_ruangan",B81="kamper"),"refill","non_refill")</f>
+        <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>

--- a/cheklist_kebersihan.xlsx
+++ b/cheklist_kebersihan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp2\Documents\Bionic\bionic\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D029ACE-1D93-446D-8900-275A311F5795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE579B7-B8CA-4270-8091-F5776F893026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="1245" windowWidth="21015" windowHeight="11295" tabRatio="767" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="1245" windowWidth="21015" windowHeight="11295" tabRatio="767" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shift 1" sheetId="3" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1492" uniqueCount="312">
   <si>
     <t>bersih</t>
   </si>
@@ -978,6 +978,9 @@
   </si>
   <si>
     <t>id_item_type</t>
+  </si>
+  <si>
+    <t>Laundry APD</t>
   </si>
 </sst>
 </file>
@@ -1162,7 +1165,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1228,6 +1231,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1554,7 +1560,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A96" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -5800,10 +5806,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D129" sqref="D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8507,20 +8513,20 @@
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="11" t="s">
-        <v>10</v>
+      <c r="A129" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>308</v>
+        <v>199</v>
       </c>
       <c r="C129" s="8"/>
       <c r="D129" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B129,all_items!$A$1:$A$57,0))), "")</f>
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="E129" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A129,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F129" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8528,20 +8534,20 @@
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
-        <v>10</v>
+      <c r="A130" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C130" s="8"/>
+        <v>200</v>
+      </c>
+      <c r="C130" s="28"/>
       <c r="D130" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B130,all_items!$A$1:$A$57,0))), "")</f>
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="E130" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A130,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" s="5" t="str">
         <f t="shared" si="1"/>
@@ -8550,19 +8556,19 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C131" s="8"/>
+        <v>201</v>
+      </c>
+      <c r="C131" s="28"/>
       <c r="D131" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B131,all_items!$A$1:$A$57,0))), "")</f>
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E131" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A131,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F131" s="5" t="str">
         <f t="shared" ref="F131:F135" si="2">IF(OR(B131="sabun_cuci_tangan",B131="tisu",B131="pengharum_ruangan",B131="kamper"),"refill","non_refill")</f>
@@ -8571,19 +8577,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C132" s="8"/>
+        <v>202</v>
+      </c>
+      <c r="C132" s="28"/>
       <c r="D132" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B132,all_items!$A$1:$A$57,0))), "")</f>
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="E132" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A132,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F132" s="5" t="str">
         <f t="shared" si="2"/>
@@ -8592,19 +8598,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C133" s="8"/>
+        <v>203</v>
+      </c>
+      <c r="C133" s="28"/>
       <c r="D133" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B133,all_items!$A$1:$A$57,0))), "")</f>
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E133" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A133,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F133" s="5" t="str">
         <f t="shared" si="2"/>
@@ -8613,19 +8619,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C134" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="C134" s="28"/>
       <c r="D134" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B134,all_items!$A$1:$A$57,0))), "")</f>
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E134" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A134,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" s="5" t="str">
         <f t="shared" si="2"/>
@@ -8634,73 +8640,150 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>10</v>
+        <v>311</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C135" s="8"/>
+        <v>205</v>
+      </c>
+      <c r="C135" s="28"/>
       <c r="D135" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B135,all_items!$A$1:$A$57,0))), "")</f>
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E135" s="7">
         <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A135,all_locations!$E$1:$E$51,0))), "")</f>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F135" s="5" t="str">
         <f t="shared" si="2"/>
         <v>non_refill</v>
       </c>
     </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="C136" s="8"/>
+      <c r="D136" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B136,all_items!$A$1:$A$57,0))), "")</f>
+        <v>1</v>
+      </c>
+      <c r="E136" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A136,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F136" s="5" t="str">
+        <f>IF(OR(B136="sabun_cuci_tangan",B136="tisu",B136="pengharum_ruangan",B136="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
+    </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
+      <c r="A137" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C137" s="8"/>
+      <c r="D137" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B137,all_items!$A$1:$A$57,0))), "")</f>
+        <v>2</v>
+      </c>
+      <c r="E137" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A137,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F137" s="5" t="str">
+        <f t="shared" ref="F137:F141" si="3">IF(OR(B137="sabun_cuci_tangan",B137="tisu",B137="pengharum_ruangan",B137="kamper"),"refill","non_refill")</f>
+        <v>non_refill</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
+      <c r="A138" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C138" s="8"/>
+      <c r="D138" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B138,all_items!$A$1:$A$57,0))), "")</f>
+        <v>5</v>
+      </c>
+      <c r="E138" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A138,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F138" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>non_refill</v>
+      </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
+      <c r="A139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C139" s="8"/>
+      <c r="D139" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B139,all_items!$A$1:$A$57,0))), "")</f>
+        <v>49</v>
+      </c>
+      <c r="E139" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A139,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F139" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>non_refill</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
+      <c r="A140" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="8"/>
+      <c r="D140" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B140,all_items!$A$1:$A$57,0))), "")</f>
+        <v>50</v>
+      </c>
+      <c r="E140" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A140,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F140" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>non_refill</v>
+      </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143"/>
+      <c r="A141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C141" s="8"/>
+      <c r="D141" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_items!$A$1:$A$57,MATCH(B141,all_items!$A$1:$A$57,0))), "")</f>
+        <v>51</v>
+      </c>
+      <c r="E141" s="7">
+        <f>_xlfn.IFNA(ROW(INDEX(all_locations!$E$1:$E$51,MATCH(A141,all_locations!$E$1:$E$51,0))), "")</f>
+        <v>40</v>
+      </c>
+      <c r="F141" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>non_refill</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E135">
@@ -8715,7 +8798,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -10448,8 +10531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10906,10 +10989,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B137"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102:XFD116"/>
+    <sheetView topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11848,169 +11931,121 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="B118" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="B119" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>202</v>
+        <v>282</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="B121" t="s">
-        <v>203</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>204</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B124" t="s">
-        <v>284</v>
+        <v>153</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B125" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>282</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>155</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B128" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B130" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B131" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>209</v>
-      </c>
-      <c r="B132" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>210</v>
-      </c>
-      <c r="B133" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>210</v>
-      </c>
-      <c r="B134" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>211</v>
-      </c>
-      <c r="B135" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>212</v>
-      </c>
-      <c r="B136" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>212</v>
-      </c>
-      <c r="B137" t="s">
         <v>154</v>
       </c>
     </row>
@@ -12023,7 +12058,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D31" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
